--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>253206.3674698064</v>
+        <v>252479.0988758806</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1734214.142967344</v>
+        <v>1734214.142967359</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11890957.49077556</v>
+        <v>11890957.49077555</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.9059052411884</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>172.3959530445036</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>211.8551051983908</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1024336499696</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>271.9665480977252</v>
       </c>
       <c r="H11" t="n">
-        <v>191.4417197072316</v>
+        <v>191.441719707231</v>
       </c>
       <c r="I11" t="n">
-        <v>48.05352955386027</v>
+        <v>48.05352955385976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>54.61031803772086</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.04303565571338</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>206.4130322951208</v>
+        <v>86.2623049021357</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9031642561763</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.70524722757514</v>
+        <v>23.70524722757463</v>
       </c>
       <c r="C12" t="n">
-        <v>29.88056256602354</v>
+        <v>29.88056256602303</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>4.617129142346045</v>
       </c>
       <c r="E12" t="n">
-        <v>14.81714403310875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>2.241275971091682</v>
+        <v>2.24127597109117</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6320173841457</v>
+        <v>115.3450860162564</v>
       </c>
       <c r="T12" t="n">
-        <v>56.24068595177449</v>
+        <v>56.24068595177398</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9234913358047</v>
+        <v>83.095554913512</v>
       </c>
       <c r="V12" t="n">
-        <v>89.97265072713307</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>108.8670467386274</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>62.94504878118477</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.5979281502394</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.0040437596451</v>
+        <v>37.00404375964459</v>
       </c>
       <c r="C13" t="n">
-        <v>24.41888467633564</v>
+        <v>24.41888467633513</v>
       </c>
       <c r="D13" t="n">
-        <v>5.787536595920159</v>
+        <v>5.787536595919647</v>
       </c>
       <c r="E13" t="n">
-        <v>3.606026224276974</v>
+        <v>3.606026224276462</v>
       </c>
       <c r="F13" t="n">
-        <v>2.593111600639048</v>
+        <v>2.593111600638537</v>
       </c>
       <c r="G13" t="n">
-        <v>24.93505813979127</v>
+        <v>24.93505813979076</v>
       </c>
       <c r="H13" t="n">
-        <v>17.37224398646526</v>
+        <v>17.37224398646475</v>
       </c>
       <c r="I13" t="n">
-        <v>5.766413901243735</v>
+        <v>5.766413901243223</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.21442947422108</v>
+        <v>24.21442947422057</v>
       </c>
       <c r="S13" t="n">
-        <v>77.21550839057615</v>
+        <v>77.21550839057564</v>
       </c>
       <c r="T13" t="n">
-        <v>84.14353614874942</v>
+        <v>84.14353614874891</v>
       </c>
       <c r="U13" t="n">
-        <v>143.478657399851</v>
+        <v>143.4786573998504</v>
       </c>
       <c r="V13" t="n">
-        <v>109.3097069015358</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W13" t="n">
-        <v>143.6950619142988</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X13" t="n">
-        <v>82.88171896674496</v>
+        <v>82.88171896674444</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.75671692980259</v>
+        <v>75.75671692980208</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.9059052411884</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C14" t="n">
-        <v>222.4449553487154</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>77.56713250091548</v>
       </c>
       <c r="G14" t="n">
-        <v>271.9665480977258</v>
+        <v>271.9665480977253</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>191.4417197072311</v>
       </c>
       <c r="I14" t="n">
-        <v>48.05352955386027</v>
+        <v>48.05352955385978</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>54.61031803772137</v>
+        <v>54.61031803772089</v>
       </c>
       <c r="T14" t="n">
-        <v>78.04303565571388</v>
+        <v>78.04303565571341</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4130322951208</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>187.7303544602194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.70524722757514</v>
+        <v>23.70524722757466</v>
       </c>
       <c r="C15" t="n">
-        <v>29.88056256602354</v>
+        <v>29.88056256602306</v>
       </c>
       <c r="D15" t="n">
-        <v>69.82279292867344</v>
+        <v>4.617129142346073</v>
       </c>
       <c r="E15" t="n">
-        <v>14.81714403310875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>2.241275971091198</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>23.80408096185348</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0686223740667</v>
+        <v>88.22749616132974</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09555491351252</v>
+        <v>83.09555491351203</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>89.97265072713259</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>62.94504878118528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.85475935501216</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.0040437596451</v>
+        <v>37.00404375964462</v>
       </c>
       <c r="C16" t="n">
-        <v>24.41888467633564</v>
+        <v>24.41888467633515</v>
       </c>
       <c r="D16" t="n">
-        <v>5.787536595920159</v>
+        <v>5.787536595919676</v>
       </c>
       <c r="E16" t="n">
-        <v>3.606026224276974</v>
+        <v>3.606026224276491</v>
       </c>
       <c r="F16" t="n">
-        <v>2.593111600639048</v>
+        <v>2.593111600638565</v>
       </c>
       <c r="G16" t="n">
-        <v>24.93505813979127</v>
+        <v>24.93505813979079</v>
       </c>
       <c r="H16" t="n">
-        <v>17.37224398646526</v>
+        <v>17.37224398646477</v>
       </c>
       <c r="I16" t="n">
-        <v>5.766413901243735</v>
+        <v>5.766413901243252</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.21442947422108</v>
+        <v>24.21442947422059</v>
       </c>
       <c r="S16" t="n">
-        <v>77.21550839057615</v>
+        <v>77.21550839057566</v>
       </c>
       <c r="T16" t="n">
-        <v>84.14353614874942</v>
+        <v>84.14353614874894</v>
       </c>
       <c r="U16" t="n">
-        <v>143.478657399851</v>
+        <v>143.4786573998505</v>
       </c>
       <c r="V16" t="n">
-        <v>109.3097069015358</v>
+        <v>109.3097069015353</v>
       </c>
       <c r="W16" t="n">
-        <v>143.6950619142988</v>
+        <v>143.6950619142983</v>
       </c>
       <c r="X16" t="n">
-        <v>82.88171896674496</v>
+        <v>82.88171896674447</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.75671692980259</v>
+        <v>75.75671692980211</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.4288489952541</v>
+        <v>131.4288489952534</v>
       </c>
       <c r="C17" t="n">
-        <v>113.9678991027811</v>
+        <v>113.9678991027804</v>
       </c>
       <c r="D17" t="n">
-        <v>103.3780489524565</v>
+        <v>103.3780489524558</v>
       </c>
       <c r="E17" t="n">
-        <v>130.6253774040353</v>
+        <v>130.6253774040347</v>
       </c>
       <c r="F17" t="n">
-        <v>155.571053073485</v>
+        <v>155.5710530734843</v>
       </c>
       <c r="G17" t="n">
-        <v>163.4894918517914</v>
+        <v>163.4894918517908</v>
       </c>
       <c r="H17" t="n">
-        <v>82.96466346129728</v>
+        <v>82.96466346129662</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>76.44726580190843</v>
+        <v>76.44726580190778</v>
       </c>
       <c r="W17" t="n">
-        <v>97.93597604918654</v>
+        <v>97.93597604918588</v>
       </c>
       <c r="X17" t="n">
-        <v>118.4261080102426</v>
+        <v>118.4261080102419</v>
       </c>
       <c r="Y17" t="n">
-        <v>134.9329459878271</v>
+        <v>134.9329459878265</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>18.5881123730861</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6.309517876409914</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9234913358047</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926924762</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.00160115391667</v>
+        <v>35.00160115391601</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8326506556015261</v>
+        <v>225.4833884060286</v>
       </c>
       <c r="W19" t="n">
-        <v>259.8687434187904</v>
+        <v>35.21800566836387</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.4288489952541</v>
+        <v>131.4288489952534</v>
       </c>
       <c r="C20" t="n">
-        <v>113.9678991027811</v>
+        <v>113.9678991027804</v>
       </c>
       <c r="D20" t="n">
-        <v>103.3780489524565</v>
+        <v>103.3780489524558</v>
       </c>
       <c r="E20" t="n">
-        <v>130.6253774040353</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F20" t="n">
-        <v>155.571053073485</v>
+        <v>155.5710530734843</v>
       </c>
       <c r="G20" t="n">
-        <v>163.4894918517914</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H20" t="n">
-        <v>82.96466346129728</v>
+        <v>82.96466346129658</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>76.44726580190843</v>
+        <v>76.44726580190772</v>
       </c>
       <c r="W20" t="n">
-        <v>97.93597604918654</v>
+        <v>97.93597604918583</v>
       </c>
       <c r="X20" t="n">
-        <v>118.4261080102426</v>
+        <v>118.4261080102418</v>
       </c>
       <c r="Y20" t="n">
-        <v>134.9329459878271</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="21">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T21" t="n">
         <v>199.0686223740667</v>
@@ -2217,10 +2217,10 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V21" t="n">
-        <v>157.570634653049</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>234.9360352195024</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>6.066084398331012</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>35.00160115391667</v>
+        <v>35.00160115391596</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8326506556015261</v>
+        <v>0.8326506556008155</v>
       </c>
       <c r="W22" t="n">
-        <v>35.21800566836453</v>
+        <v>47.37626995700968</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>131.4288489952541</v>
+        <v>131.4288489952534</v>
       </c>
       <c r="C23" t="n">
-        <v>113.9678991027811</v>
+        <v>113.9678991027804</v>
       </c>
       <c r="D23" t="n">
-        <v>103.3780489524565</v>
+        <v>103.3780489524558</v>
       </c>
       <c r="E23" t="n">
-        <v>130.6253774040353</v>
+        <v>130.6253774040346</v>
       </c>
       <c r="F23" t="n">
-        <v>155.571053073485</v>
+        <v>155.5710530734843</v>
       </c>
       <c r="G23" t="n">
-        <v>163.4894918517914</v>
+        <v>163.4894918517907</v>
       </c>
       <c r="H23" t="n">
-        <v>82.96466346129728</v>
+        <v>82.96466346129657</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>76.44726580190843</v>
+        <v>76.44726580190772</v>
       </c>
       <c r="W23" t="n">
-        <v>97.93597604918654</v>
+        <v>97.93597604918583</v>
       </c>
       <c r="X23" t="n">
-        <v>118.4261080102426</v>
+        <v>118.4261080102418</v>
       </c>
       <c r="Y23" t="n">
-        <v>134.9329459878271</v>
+        <v>134.9329459878264</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2397,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>47.61462137520446</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0.3899904926924194</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>192.6621769180797</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>35.00160115391667</v>
+        <v>114.2312908814126</v>
       </c>
       <c r="V25" t="n">
-        <v>225.4833884060273</v>
+        <v>0.8326506556008155</v>
       </c>
       <c r="W25" t="n">
-        <v>35.21800566836453</v>
+        <v>35.21800566836382</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.5765385614903</v>
       </c>
       <c r="I26" t="n">
-        <v>41.18834840811897</v>
+        <v>41.188348408119</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.74513689198007</v>
+        <v>47.7451368919801</v>
       </c>
       <c r="T26" t="n">
-        <v>71.17785450997259</v>
+        <v>71.17785450997262</v>
       </c>
       <c r="U26" t="n">
-        <v>101.6118751001936</v>
+        <v>101.6118751001937</v>
       </c>
       <c r="V26" t="n">
         <v>178.0591409021014</v>
@@ -2618,7 +2618,7 @@
         <v>199.5478511493795</v>
       </c>
       <c r="X26" t="n">
-        <v>220.0379831104355</v>
+        <v>220.0379831104356</v>
       </c>
       <c r="Y26" t="n">
         <v>236.5448210880201</v>
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>16.84006608183387</v>
       </c>
       <c r="C27" t="n">
-        <v>23.01538142028224</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>7.951962887367443</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I27" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>166.6320173841457</v>
+        <v>16.9388998161122</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0686223740667</v>
+        <v>49.37550480603321</v>
       </c>
       <c r="U27" t="n">
-        <v>151.0177119353103</v>
+        <v>204.7161802129589</v>
       </c>
       <c r="V27" t="n">
-        <v>83.10746958139177</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.1388626139038</v>
+        <v>30.13886261390383</v>
       </c>
       <c r="C28" t="n">
-        <v>17.55370353059433</v>
+        <v>17.55370353059436</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.06987699404997</v>
+        <v>18.06987699405</v>
       </c>
       <c r="H28" t="n">
-        <v>10.50706284072395</v>
+        <v>10.50706284072398</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.34924832847977</v>
+        <v>17.3492483284798</v>
       </c>
       <c r="S28" t="n">
-        <v>70.35032724483484</v>
+        <v>70.35032724483487</v>
       </c>
       <c r="T28" t="n">
-        <v>77.27835500300812</v>
+        <v>77.27835500300814</v>
       </c>
       <c r="U28" t="n">
         <v>136.6134762541097</v>
@@ -2776,10 +2776,10 @@
         <v>136.8298807685575</v>
       </c>
       <c r="X28" t="n">
-        <v>76.01653782100365</v>
+        <v>76.01653782100368</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.89153578406129</v>
+        <v>68.89153578406132</v>
       </c>
     </row>
     <row r="29">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.84006608183384</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>7.951962887367443</v>
+        <v>91.72982943539742</v>
       </c>
       <c r="F30" t="n">
-        <v>50.96164742110612</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>166.6320173841457</v>
@@ -2928,13 +2928,13 @@
         <v>225.9234913358047</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>83.10746958139177</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>56.07986763544397</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.040724095447</v>
+        <v>233.0407240954471</v>
       </c>
       <c r="C32" t="n">
-        <v>215.579774202974</v>
+        <v>215.5797742029741</v>
       </c>
       <c r="D32" t="n">
-        <v>204.9899240526494</v>
+        <v>204.9899240526495</v>
       </c>
       <c r="E32" t="n">
-        <v>232.2372525042282</v>
+        <v>232.2372525042283</v>
       </c>
       <c r="F32" t="n">
-        <v>257.1829281736779</v>
+        <v>257.182928173678</v>
       </c>
       <c r="G32" t="n">
-        <v>265.1013669519843</v>
+        <v>265.1013669519845</v>
       </c>
       <c r="H32" t="n">
-        <v>184.5765385614902</v>
+        <v>184.5765385614903</v>
       </c>
       <c r="I32" t="n">
-        <v>41.18834840811891</v>
+        <v>41.18834840811896</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.74513689198002</v>
+        <v>47.74513689198007</v>
       </c>
       <c r="T32" t="n">
-        <v>71.17785450997252</v>
+        <v>71.17785450997259</v>
       </c>
       <c r="U32" t="n">
         <v>101.6118751001936</v>
       </c>
       <c r="V32" t="n">
-        <v>178.0591409021013</v>
+        <v>178.0591409021014</v>
       </c>
       <c r="W32" t="n">
         <v>199.5478511493795</v>
@@ -3095,7 +3095,7 @@
         <v>220.0379831104355</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.54482108802</v>
+        <v>236.5448210880201</v>
       </c>
     </row>
     <row r="33">
@@ -3111,16 +3111,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>7.951962887367387</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>2.879978141839367</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6320173841457</v>
+        <v>22.06692996134624</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0686223740667</v>
+        <v>49.37550480603318</v>
       </c>
       <c r="U33" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V33" t="n">
-        <v>83.10746958139171</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>102.0018655928861</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.13886261390374</v>
+        <v>30.1388626139038</v>
       </c>
       <c r="C34" t="n">
-        <v>17.55370353059428</v>
+        <v>17.55370353059433</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.06987699404991</v>
+        <v>18.06987699404997</v>
       </c>
       <c r="H34" t="n">
-        <v>10.5070628407239</v>
+        <v>10.50706284072395</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.34924832847972</v>
+        <v>17.34924832847977</v>
       </c>
       <c r="S34" t="n">
-        <v>70.35032724483479</v>
+        <v>70.35032724483484</v>
       </c>
       <c r="T34" t="n">
-        <v>77.27835500300806</v>
+        <v>77.27835500300812</v>
       </c>
       <c r="U34" t="n">
-        <v>136.6134762541096</v>
+        <v>136.6134762541097</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4445257557944</v>
+        <v>102.4445257557945</v>
       </c>
       <c r="W34" t="n">
-        <v>136.8298807685574</v>
+        <v>136.8298807685575</v>
       </c>
       <c r="X34" t="n">
-        <v>76.0165378210036</v>
+        <v>76.01653782100365</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.89153578406123</v>
+        <v>68.89153578406129</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>145.9806268148779</v>
       </c>
       <c r="C35" t="n">
-        <v>128.5196769224048</v>
+        <v>128.5196769224049</v>
       </c>
       <c r="D35" t="n">
-        <v>117.9298267720802</v>
+        <v>117.9298267720803</v>
       </c>
       <c r="E35" t="n">
         <v>145.1771552236591</v>
       </c>
       <c r="F35" t="n">
-        <v>170.1228308931087</v>
+        <v>170.1228308931088</v>
       </c>
       <c r="G35" t="n">
-        <v>178.0412696714152</v>
+        <v>178.0412696714153</v>
       </c>
       <c r="H35" t="n">
-        <v>97.51644128092104</v>
+        <v>97.51644128092107</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.55177781962442</v>
+        <v>14.55177781962445</v>
       </c>
       <c r="V35" t="n">
-        <v>90.99904362153219</v>
+        <v>90.99904362153222</v>
       </c>
       <c r="W35" t="n">
         <v>112.4877538688103</v>
       </c>
       <c r="X35" t="n">
-        <v>132.9778858298663</v>
+        <v>132.9778858298664</v>
       </c>
       <c r="Y35" t="n">
         <v>149.4847238074509</v>
@@ -3345,16 +3345,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>12.6010606944936</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U36" t="n">
         <v>225.9234913358047</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>179.3263571505601</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.55337897354043</v>
+        <v>49.55337897354046</v>
       </c>
       <c r="V37" t="n">
-        <v>15.38442847522529</v>
+        <v>15.38442847522532</v>
       </c>
       <c r="W37" t="n">
-        <v>230.7651877795427</v>
+        <v>49.76978348798832</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>180.9954042915544</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>145.9806268148779</v>
       </c>
       <c r="C38" t="n">
-        <v>128.5196769224048</v>
+        <v>128.5196769224049</v>
       </c>
       <c r="D38" t="n">
-        <v>117.9298267720802</v>
+        <v>117.9298267720803</v>
       </c>
       <c r="E38" t="n">
         <v>145.1771552236591</v>
       </c>
       <c r="F38" t="n">
-        <v>170.1228308931087</v>
+        <v>170.1228308931088</v>
       </c>
       <c r="G38" t="n">
-        <v>178.0412696714152</v>
+        <v>178.0412696714153</v>
       </c>
       <c r="H38" t="n">
-        <v>97.51644128092104</v>
+        <v>97.51644128092107</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.55177781962442</v>
+        <v>14.55177781962445</v>
       </c>
       <c r="V38" t="n">
-        <v>90.99904362153219</v>
+        <v>90.99904362153222</v>
       </c>
       <c r="W38" t="n">
         <v>112.4877538688103</v>
       </c>
       <c r="X38" t="n">
-        <v>132.9778858298663</v>
+        <v>132.9778858298664</v>
       </c>
       <c r="Y38" t="n">
         <v>149.4847238074509</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>36.1940942773846</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4.209705386496396</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>160.2001804087575</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>20.795223882797</v>
       </c>
       <c r="U40" t="n">
-        <v>49.55337897354043</v>
+        <v>49.55337897354046</v>
       </c>
       <c r="V40" t="n">
-        <v>196.3798327667798</v>
+        <v>15.38442847522532</v>
       </c>
       <c r="W40" t="n">
-        <v>49.76978348798829</v>
+        <v>49.76978348798832</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>161.8628695854758</v>
+        <v>161.8628695854745</v>
       </c>
       <c r="C41" t="n">
-        <v>144.4019196930028</v>
+        <v>144.4019196930014</v>
       </c>
       <c r="D41" t="n">
-        <v>133.8120695426782</v>
+        <v>133.8120695426769</v>
       </c>
       <c r="E41" t="n">
-        <v>161.059397994257</v>
+        <v>161.0593979942557</v>
       </c>
       <c r="F41" t="n">
-        <v>186.0050736637067</v>
+        <v>186.0050736637053</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9235124420132</v>
+        <v>193.9235124420118</v>
       </c>
       <c r="H41" t="n">
-        <v>113.398684051519</v>
+        <v>113.3986840515176</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.34647848426539e-12</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.43402059022239</v>
+        <v>30.43402059022102</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8812863921302</v>
+        <v>106.8812863921288</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3699966394083</v>
+        <v>128.3699966394069</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8601286004643</v>
+        <v>148.8601286004629</v>
       </c>
       <c r="Y41" t="n">
-        <v>165.3669665780488</v>
+        <v>165.3669665780475</v>
       </c>
     </row>
     <row r="42">
@@ -3816,25 +3816,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>77.07839130887855</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>143.3170381455537</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>30.82401108291486</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>128.5099926687282</v>
+        <v>6.100500493035515</v>
       </c>
       <c r="U43" t="n">
-        <v>65.4356217441384</v>
+        <v>187.8451139198352</v>
       </c>
       <c r="V43" t="n">
-        <v>31.26667124582326</v>
+        <v>31.2666712458219</v>
       </c>
       <c r="W43" t="n">
-        <v>65.65202625858626</v>
+        <v>65.6520262585849</v>
       </c>
       <c r="X43" t="n">
-        <v>4.838683311032412</v>
+        <v>4.838683311031048</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>161.8628695854758</v>
+        <v>161.8628695854745</v>
       </c>
       <c r="C44" t="n">
-        <v>144.4019196930028</v>
+        <v>144.4019196930015</v>
       </c>
       <c r="D44" t="n">
-        <v>133.8120695426782</v>
+        <v>133.8120695426769</v>
       </c>
       <c r="E44" t="n">
-        <v>161.059397994257</v>
+        <v>161.0593979942557</v>
       </c>
       <c r="F44" t="n">
-        <v>186.0050736637067</v>
+        <v>186.0050736637054</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9235124420132</v>
+        <v>193.9235124420119</v>
       </c>
       <c r="H44" t="n">
-        <v>113.398684051519</v>
+        <v>113.3986840515177</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.43402059022239</v>
+        <v>30.43402059022105</v>
       </c>
       <c r="V44" t="n">
-        <v>106.8812863921302</v>
+        <v>106.8812863921288</v>
       </c>
       <c r="W44" t="n">
-        <v>128.3699966394083</v>
+        <v>128.3699966394069</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8601286004643</v>
+        <v>148.860128600463</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.3669665780488</v>
+        <v>165.3669665780475</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.878765892379233</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9234913358047</v>
+        <v>5.128944124729928</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>122.409492175698</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>6.100500493036879</v>
+        <v>6.100500493035543</v>
       </c>
       <c r="U46" t="n">
-        <v>65.4356217441384</v>
+        <v>65.43562174413707</v>
       </c>
       <c r="V46" t="n">
-        <v>31.26667124582326</v>
+        <v>31.26667124582193</v>
       </c>
       <c r="W46" t="n">
-        <v>65.65202625858626</v>
+        <v>65.65202625858493</v>
       </c>
       <c r="X46" t="n">
-        <v>4.838683311032412</v>
+        <v>4.838683311031076</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.4094921756913</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>898.551968568009</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="C11" t="n">
-        <v>724.4146422604294</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="D11" t="n">
-        <v>510.4195865044792</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="E11" t="n">
-        <v>268.901976757035</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="F11" t="n">
-        <v>268.901976757035</v>
+        <v>543.6156617042309</v>
       </c>
       <c r="G11" t="n">
-        <v>268.901976757035</v>
+        <v>268.9019767570337</v>
       </c>
       <c r="H11" t="n">
-        <v>75.5265023052859</v>
+        <v>75.52650230528523</v>
       </c>
       <c r="I11" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J11" t="n">
-        <v>57.86375137082643</v>
+        <v>57.86375137082626</v>
       </c>
       <c r="K11" t="n">
-        <v>57.86375137082643</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L11" t="n">
-        <v>317.3436761371632</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M11" t="n">
-        <v>622.6716343416408</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N11" t="n">
-        <v>918.3081205746064</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O11" t="n">
-        <v>1152.281633429987</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P11" t="n">
-        <v>1304.933220852853</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q11" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R11" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S11" t="n">
-        <v>1349.379178200644</v>
+        <v>1294.217240788797</v>
       </c>
       <c r="T11" t="n">
-        <v>1349.379178200644</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="U11" t="n">
-        <v>1349.379178200644</v>
+        <v>1105.81310755481</v>
       </c>
       <c r="V11" t="n">
-        <v>1349.379178200644</v>
+        <v>1105.81310755481</v>
       </c>
       <c r="W11" t="n">
-        <v>1140.881165781331</v>
+        <v>1018.679466239521</v>
       </c>
       <c r="X11" t="n">
-        <v>1140.881165781331</v>
+        <v>789.4843508292419</v>
       </c>
       <c r="Y11" t="n">
-        <v>1140.881165781331</v>
+        <v>543.6156617042309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.7912461614753</v>
+        <v>223.3351069325594</v>
       </c>
       <c r="C12" t="n">
-        <v>331.6088597311485</v>
+        <v>193.1527205022331</v>
       </c>
       <c r="D12" t="n">
-        <v>182.6744500698973</v>
+        <v>188.4889536917825</v>
       </c>
       <c r="E12" t="n">
-        <v>167.707637915242</v>
+        <v>29.25149868632704</v>
       </c>
       <c r="F12" t="n">
-        <v>165.4437227929271</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G12" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H12" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I12" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J12" t="n">
-        <v>26.98758356401289</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K12" t="n">
-        <v>195.818258907075</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="L12" t="n">
-        <v>484.2363331920537</v>
+        <v>508.9325875318635</v>
       </c>
       <c r="M12" t="n">
-        <v>818.2076797967133</v>
+        <v>842.903934136521</v>
       </c>
       <c r="N12" t="n">
-        <v>1036.571493402676</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="O12" t="n">
-        <v>1349.379178200644</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P12" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q12" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R12" t="n">
-        <v>1349.379178200644</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S12" t="n">
-        <v>1181.06400912575</v>
+        <v>1148.75409982316</v>
       </c>
       <c r="T12" t="n">
-        <v>1124.255235437089</v>
+        <v>1091.9453261345</v>
       </c>
       <c r="U12" t="n">
-        <v>896.0496886332455</v>
+        <v>1008.010422181457</v>
       </c>
       <c r="V12" t="n">
-        <v>805.1682232523031</v>
+        <v>772.8583139497143</v>
       </c>
       <c r="W12" t="n">
-        <v>695.2015093749017</v>
+        <v>518.6209572215126</v>
       </c>
       <c r="X12" t="n">
-        <v>487.3500091693688</v>
+        <v>455.0400998667806</v>
       </c>
       <c r="Y12" t="n">
-        <v>385.7359403307432</v>
+        <v>247.2798011018267</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.3201847000453</v>
+        <v>112.3201847000415</v>
       </c>
       <c r="C13" t="n">
-        <v>87.6546446229386</v>
+        <v>87.65464462293534</v>
       </c>
       <c r="D13" t="n">
-        <v>81.80864806140309</v>
+        <v>81.80864806140033</v>
       </c>
       <c r="E13" t="n">
-        <v>78.16619732981019</v>
+        <v>78.16619732980794</v>
       </c>
       <c r="F13" t="n">
-        <v>75.54689268270003</v>
+        <v>75.54689268269831</v>
       </c>
       <c r="G13" t="n">
-        <v>50.35996526876945</v>
+        <v>50.35996526876826</v>
       </c>
       <c r="H13" t="n">
-        <v>32.81224407031969</v>
+        <v>32.81224407031902</v>
       </c>
       <c r="I13" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J13" t="n">
-        <v>91.91899215927178</v>
+        <v>91.91899215927214</v>
       </c>
       <c r="K13" t="n">
-        <v>96.09500653073357</v>
+        <v>237.4946635888037</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3649588358093</v>
+        <v>298.3649588358101</v>
       </c>
       <c r="M13" t="n">
-        <v>514.3329306811928</v>
+        <v>381.0015841232606</v>
       </c>
       <c r="N13" t="n">
-        <v>733.9624510911657</v>
+        <v>459.2314474751641</v>
       </c>
       <c r="O13" t="n">
-        <v>790.204096252452</v>
+        <v>656.8727496945203</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8751138772423</v>
+        <v>822.8761680036263</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8751138772423</v>
+        <v>897.8751138772337</v>
       </c>
       <c r="R13" t="n">
-        <v>873.4160942063119</v>
+        <v>873.4160942063039</v>
       </c>
       <c r="S13" t="n">
-        <v>795.4206311855279</v>
+        <v>795.4206311855204</v>
       </c>
       <c r="T13" t="n">
-        <v>710.4271603282052</v>
+        <v>710.4271603281983</v>
       </c>
       <c r="U13" t="n">
-        <v>565.499223560679</v>
+        <v>565.4992235606726</v>
       </c>
       <c r="V13" t="n">
-        <v>455.0853782055922</v>
+        <v>455.0853782055864</v>
       </c>
       <c r="W13" t="n">
-        <v>309.9388510194318</v>
+        <v>309.9388510194265</v>
       </c>
       <c r="X13" t="n">
-        <v>226.2199429722147</v>
+        <v>226.2199429722099</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.6980066794848</v>
+        <v>149.6980066794805</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>574.9320613420952</v>
+        <v>863.4839103414884</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2401872524837</v>
+        <v>863.4839103414884</v>
       </c>
       <c r="D14" t="n">
-        <v>350.2401872524837</v>
+        <v>863.4839103414884</v>
       </c>
       <c r="E14" t="n">
-        <v>350.2401872524837</v>
+        <v>621.9663005940448</v>
       </c>
       <c r="F14" t="n">
-        <v>350.2401872524837</v>
+        <v>543.615661704231</v>
       </c>
       <c r="G14" t="n">
-        <v>75.5265023052859</v>
+        <v>268.9019767570338</v>
       </c>
       <c r="H14" t="n">
-        <v>75.5265023052859</v>
+        <v>75.52650230528525</v>
       </c>
       <c r="I14" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J14" t="n">
-        <v>57.86375137082643</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K14" t="n">
-        <v>224.8839273401041</v>
+        <v>194.0077595332904</v>
       </c>
       <c r="L14" t="n">
-        <v>307.9786664140309</v>
+        <v>453.4876842996272</v>
       </c>
       <c r="M14" t="n">
-        <v>613.3066246185085</v>
+        <v>758.8156425041047</v>
       </c>
       <c r="N14" t="n">
-        <v>908.9431108514741</v>
+        <v>1054.45212873707</v>
       </c>
       <c r="O14" t="n">
-        <v>1142.916623706854</v>
+        <v>1288.425641592451</v>
       </c>
       <c r="P14" t="n">
-        <v>1304.933220852853</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q14" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R14" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S14" t="n">
-        <v>1294.217240788805</v>
+        <v>1294.217240788797</v>
       </c>
       <c r="T14" t="n">
-        <v>1215.385891641619</v>
+        <v>1215.385891641612</v>
       </c>
       <c r="U14" t="n">
-        <v>1215.385891641619</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="V14" t="n">
-        <v>1215.385891641619</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="W14" t="n">
-        <v>1006.887879222305</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="X14" t="n">
-        <v>1006.887879222305</v>
+        <v>1105.813107554809</v>
       </c>
       <c r="Y14" t="n">
-        <v>817.2612585554167</v>
+        <v>1105.813107554809</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.9156590859473</v>
+        <v>223.3351069325595</v>
       </c>
       <c r="C15" t="n">
-        <v>369.7332726556205</v>
+        <v>193.1527205022331</v>
       </c>
       <c r="D15" t="n">
-        <v>299.2051989902938</v>
+        <v>188.4889536917826</v>
       </c>
       <c r="E15" t="n">
-        <v>284.2383868356385</v>
+        <v>29.25149868632707</v>
       </c>
       <c r="F15" t="n">
-        <v>137.7038288625235</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G15" t="n">
-        <v>137.7038288625235</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H15" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I15" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J15" t="n">
-        <v>51.68383790382275</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K15" t="n">
-        <v>180.1293955274367</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="L15" t="n">
-        <v>468.5474698124154</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="M15" t="n">
-        <v>802.518816417075</v>
+        <v>554.4858598515423</v>
       </c>
       <c r="N15" t="n">
-        <v>802.518816417075</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O15" t="n">
-        <v>1115.326501215044</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P15" t="n">
-        <v>1349.379178200644</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q15" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R15" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S15" t="n">
-        <v>1325.33465197655</v>
+        <v>1181.064009125742</v>
       </c>
       <c r="T15" t="n">
-        <v>1124.255235437089</v>
+        <v>1091.9453261345</v>
       </c>
       <c r="U15" t="n">
-        <v>1040.320331484046</v>
+        <v>1008.010422181457</v>
       </c>
       <c r="V15" t="n">
-        <v>805.1682232523031</v>
+        <v>917.1289568005152</v>
       </c>
       <c r="W15" t="n">
-        <v>550.9308665241015</v>
+        <v>662.8916000723135</v>
       </c>
       <c r="X15" t="n">
-        <v>487.3500091693689</v>
+        <v>455.0400998667807</v>
       </c>
       <c r="Y15" t="n">
-        <v>423.8603532552152</v>
+        <v>247.2798011018268</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.3201847000453</v>
+        <v>112.3201847000417</v>
       </c>
       <c r="C16" t="n">
-        <v>87.6546446229386</v>
+        <v>87.65464462293551</v>
       </c>
       <c r="D16" t="n">
-        <v>81.80864806140309</v>
+        <v>81.80864806140048</v>
       </c>
       <c r="E16" t="n">
-        <v>78.16619732981019</v>
+        <v>78.16619732980806</v>
       </c>
       <c r="F16" t="n">
-        <v>75.54689268270003</v>
+        <v>75.5468926826984</v>
       </c>
       <c r="G16" t="n">
-        <v>50.35996526876945</v>
+        <v>50.35996526876831</v>
       </c>
       <c r="H16" t="n">
-        <v>32.81224407031969</v>
+        <v>32.81224407031905</v>
       </c>
       <c r="I16" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J16" t="n">
-        <v>91.91899215927178</v>
+        <v>91.91899215927211</v>
       </c>
       <c r="K16" t="n">
-        <v>96.09500653073357</v>
+        <v>104.1633170308706</v>
       </c>
       <c r="L16" t="n">
-        <v>298.3649588358093</v>
+        <v>165.033612277877</v>
       </c>
       <c r="M16" t="n">
-        <v>514.3329306811928</v>
+        <v>239.6019270651913</v>
       </c>
       <c r="N16" t="n">
-        <v>592.5627940330965</v>
+        <v>459.2314474751646</v>
       </c>
       <c r="O16" t="n">
-        <v>790.204096252452</v>
+        <v>656.8727496945207</v>
       </c>
       <c r="P16" t="n">
-        <v>897.8751138772423</v>
+        <v>822.8761680036267</v>
       </c>
       <c r="Q16" t="n">
-        <v>897.8751138772423</v>
+        <v>897.8751138772342</v>
       </c>
       <c r="R16" t="n">
-        <v>873.4160942063119</v>
+        <v>873.4160942063043</v>
       </c>
       <c r="S16" t="n">
-        <v>795.4206311855279</v>
+        <v>795.4206311855207</v>
       </c>
       <c r="T16" t="n">
-        <v>710.4271603282052</v>
+        <v>710.4271603281986</v>
       </c>
       <c r="U16" t="n">
-        <v>565.499223560679</v>
+        <v>565.4992235606729</v>
       </c>
       <c r="V16" t="n">
-        <v>455.0853782055922</v>
+        <v>455.0853782055867</v>
       </c>
       <c r="W16" t="n">
-        <v>309.9388510194318</v>
+        <v>309.9388510194268</v>
       </c>
       <c r="X16" t="n">
-        <v>226.2199429722147</v>
+        <v>226.2199429722101</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.6980066794848</v>
+        <v>149.6980066794807</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>784.5598399739589</v>
+        <v>784.5598399739542</v>
       </c>
       <c r="C17" t="n">
-        <v>669.4407499711498</v>
+        <v>669.4407499711458</v>
       </c>
       <c r="D17" t="n">
-        <v>565.0184783020018</v>
+        <v>565.0184783019986</v>
       </c>
       <c r="E17" t="n">
-        <v>433.07365264136</v>
+        <v>433.0736526413575</v>
       </c>
       <c r="F17" t="n">
-        <v>275.9311747893549</v>
+        <v>275.9311747893531</v>
       </c>
       <c r="G17" t="n">
-        <v>110.7902739289596</v>
+        <v>110.7902739289588</v>
       </c>
       <c r="H17" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I17" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J17" t="n">
-        <v>57.86375137082643</v>
+        <v>57.86375137082626</v>
       </c>
       <c r="K17" t="n">
-        <v>224.8839273401041</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L17" t="n">
-        <v>484.3638521064408</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M17" t="n">
-        <v>657.7525819663003</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N17" t="n">
-        <v>953.3890681992659</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O17" t="n">
-        <v>1187.362581054646</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="P17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U17" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V17" t="n">
-        <v>1272.159717794676</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W17" t="n">
-        <v>1173.234489462165</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X17" t="n">
-        <v>1053.612158138687</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y17" t="n">
-        <v>917.3162531004782</v>
+        <v>917.3162531004729</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>379.4539389345207</v>
+        <v>765.1581124194834</v>
       </c>
       <c r="C18" t="n">
-        <v>205.0009096533937</v>
+        <v>590.7050831383564</v>
       </c>
       <c r="D18" t="n">
-        <v>186.2250385694684</v>
+        <v>441.7706734771051</v>
       </c>
       <c r="E18" t="n">
-        <v>26.98758356401289</v>
+        <v>282.5332184716496</v>
       </c>
       <c r="F18" t="n">
-        <v>26.98758356401289</v>
+        <v>282.5332184716496</v>
       </c>
       <c r="G18" t="n">
-        <v>26.98758356401289</v>
+        <v>144.0770792427354</v>
       </c>
       <c r="H18" t="n">
-        <v>26.98758356401289</v>
+        <v>33.36083394422477</v>
       </c>
       <c r="I18" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J18" t="n">
-        <v>26.98758356401289</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K18" t="n">
-        <v>26.98758356401289</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="L18" t="n">
-        <v>315.4056578489916</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="M18" t="n">
-        <v>649.3770044536511</v>
+        <v>364.7872229686573</v>
       </c>
       <c r="N18" t="n">
-        <v>802.518816417075</v>
+        <v>698.7585695733148</v>
       </c>
       <c r="O18" t="n">
-        <v>1115.326501215044</v>
+        <v>1011.566254371284</v>
       </c>
       <c r="P18" t="n">
-        <v>1349.379178200644</v>
+        <v>1245.618931356884</v>
       </c>
       <c r="Q18" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R18" t="n">
-        <v>1265.264287718376</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S18" t="n">
-        <v>1265.264287718376</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T18" t="n">
-        <v>1265.264287718376</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U18" t="n">
-        <v>1037.058740914533</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V18" t="n">
-        <v>801.9066326827904</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="W18" t="n">
-        <v>547.6692759545888</v>
+        <v>1348.985248410038</v>
       </c>
       <c r="X18" t="n">
-        <v>547.6692759545888</v>
+        <v>1141.133748204505</v>
       </c>
       <c r="Y18" t="n">
-        <v>547.6692759545888</v>
+        <v>933.3734494395515</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K19" t="n">
-        <v>31.16359793547469</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L19" t="n">
-        <v>92.03389318248107</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M19" t="n">
-        <v>166.6022079697953</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N19" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O19" t="n">
-        <v>301.0737164829853</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T19" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U19" t="n">
-        <v>290.3223250532976</v>
+        <v>290.3223250532981</v>
       </c>
       <c r="V19" t="n">
-        <v>289.4812637850133</v>
+        <v>62.56132666337018</v>
       </c>
       <c r="W19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="X19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="Y19" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>784.5598399739589</v>
+        <v>784.5598399739547</v>
       </c>
       <c r="C20" t="n">
-        <v>669.4407499711497</v>
+        <v>669.4407499711463</v>
       </c>
       <c r="D20" t="n">
-        <v>565.0184783020017</v>
+        <v>565.018478301999</v>
       </c>
       <c r="E20" t="n">
-        <v>433.0736526413599</v>
+        <v>433.073652641358</v>
       </c>
       <c r="F20" t="n">
-        <v>275.9311747893549</v>
+        <v>275.9311747893537</v>
       </c>
       <c r="G20" t="n">
-        <v>110.7902739289596</v>
+        <v>110.7902739289588</v>
       </c>
       <c r="H20" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I20" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J20" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K20" t="n">
-        <v>194.0077595332905</v>
+        <v>48.49874164768613</v>
       </c>
       <c r="L20" t="n">
-        <v>453.4876842996273</v>
+        <v>307.9786664140229</v>
       </c>
       <c r="M20" t="n">
-        <v>758.815642504105</v>
+        <v>613.3066246185006</v>
       </c>
       <c r="N20" t="n">
-        <v>1054.452128737071</v>
+        <v>908.9431108514661</v>
       </c>
       <c r="O20" t="n">
-        <v>1288.425641592451</v>
+        <v>1142.916623706846</v>
       </c>
       <c r="P20" t="n">
-        <v>1349.379178200644</v>
+        <v>1304.933220852845</v>
       </c>
       <c r="Q20" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R20" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S20" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T20" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U20" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V20" t="n">
-        <v>1272.159717794676</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W20" t="n">
-        <v>1173.234489462165</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X20" t="n">
-        <v>1053.612158138687</v>
+        <v>1053.612158138682</v>
       </c>
       <c r="Y20" t="n">
-        <v>917.3162531004782</v>
+        <v>917.3162531004732</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>254.3643734015</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="C21" t="n">
-        <v>254.3643734015</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="D21" t="n">
-        <v>254.3643734015</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="E21" t="n">
-        <v>254.3643734015</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8298154283849</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G21" t="n">
-        <v>107.8298154283849</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H21" t="n">
-        <v>107.8298154283849</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I21" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J21" t="n">
-        <v>51.68383790382275</v>
+        <v>51.68383790382259</v>
       </c>
       <c r="K21" t="n">
-        <v>220.5145132468849</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9325875318636</v>
+        <v>220.5145132468847</v>
       </c>
       <c r="M21" t="n">
-        <v>698.7585695733228</v>
+        <v>554.4858598515423</v>
       </c>
       <c r="N21" t="n">
-        <v>698.7585695733228</v>
+        <v>802.518816417067</v>
       </c>
       <c r="O21" t="n">
-        <v>1011.566254371292</v>
+        <v>1115.326501215036</v>
       </c>
       <c r="P21" t="n">
-        <v>1245.618931356892</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q21" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R21" t="n">
-        <v>1265.264287718376</v>
+        <v>1265.264287718368</v>
       </c>
       <c r="S21" t="n">
-        <v>1265.264287718376</v>
+        <v>1096.949118643474</v>
       </c>
       <c r="T21" t="n">
-        <v>1064.184871178915</v>
+        <v>895.8697021040125</v>
       </c>
       <c r="U21" t="n">
-        <v>835.9793243750717</v>
+        <v>667.6641553001693</v>
       </c>
       <c r="V21" t="n">
-        <v>676.8170671497696</v>
+        <v>432.5120470684266</v>
       </c>
       <c r="W21" t="n">
-        <v>422.579710421568</v>
+        <v>195.2029205840808</v>
       </c>
       <c r="X21" t="n">
-        <v>422.579710421568</v>
+        <v>195.2029205840808</v>
       </c>
       <c r="Y21" t="n">
-        <v>422.579710421568</v>
+        <v>195.2029205840808</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.11494154212502</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="C22" t="n">
-        <v>33.11494154212502</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="D22" t="n">
-        <v>33.11494154212502</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="E22" t="n">
-        <v>33.11494154212502</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="F22" t="n">
-        <v>33.11494154212502</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G22" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H22" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I22" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J22" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K22" t="n">
-        <v>31.16359793547469</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L22" t="n">
-        <v>92.03389318248107</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M22" t="n">
-        <v>166.6022079697953</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N22" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O22" t="n">
-        <v>301.0737164829853</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P22" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q22" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="R22" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="S22" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="T22" t="n">
-        <v>325.6774777340215</v>
+        <v>257.9285631493236</v>
       </c>
       <c r="U22" t="n">
-        <v>290.3223250532976</v>
+        <v>222.5734104686004</v>
       </c>
       <c r="V22" t="n">
-        <v>289.4812637850133</v>
+        <v>221.7323492003167</v>
       </c>
       <c r="W22" t="n">
-        <v>253.9075206856551</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="X22" t="n">
-        <v>253.9075206856551</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.11494154212502</v>
+        <v>173.8775310619231</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>784.5598399739588</v>
+        <v>784.5598399739545</v>
       </c>
       <c r="C23" t="n">
-        <v>669.4407499711497</v>
+        <v>669.440749971146</v>
       </c>
       <c r="D23" t="n">
-        <v>565.0184783020017</v>
+        <v>565.018478301999</v>
       </c>
       <c r="E23" t="n">
-        <v>433.0736526413599</v>
+        <v>433.073652641358</v>
       </c>
       <c r="F23" t="n">
-        <v>275.9311747893548</v>
+        <v>275.9311747893536</v>
       </c>
       <c r="G23" t="n">
-        <v>110.7902739289596</v>
+        <v>110.7902739289588</v>
       </c>
       <c r="H23" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I23" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J23" t="n">
-        <v>57.86375137082643</v>
+        <v>57.86375137082626</v>
       </c>
       <c r="K23" t="n">
-        <v>224.8839273401041</v>
+        <v>224.8839273401039</v>
       </c>
       <c r="L23" t="n">
-        <v>484.3638521064408</v>
+        <v>484.3638521064407</v>
       </c>
       <c r="M23" t="n">
-        <v>789.6918103109185</v>
+        <v>789.6918103109183</v>
       </c>
       <c r="N23" t="n">
-        <v>908.9431108514741</v>
+        <v>1085.328296543884</v>
       </c>
       <c r="O23" t="n">
-        <v>1142.916623706854</v>
+        <v>1319.301809399264</v>
       </c>
       <c r="P23" t="n">
-        <v>1304.933220852853</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q23" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R23" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S23" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T23" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U23" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V23" t="n">
-        <v>1272.159717794676</v>
+        <v>1272.159717794669</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.234489462164</v>
+        <v>1173.234489462158</v>
       </c>
       <c r="X23" t="n">
-        <v>1053.612158138687</v>
+        <v>1053.612158138681</v>
       </c>
       <c r="Y23" t="n">
-        <v>917.3162531004781</v>
+        <v>917.3162531004731</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.08316071068407</v>
+        <v>986.1616518767584</v>
       </c>
       <c r="C24" t="n">
-        <v>75.08316071068407</v>
+        <v>811.7086225956314</v>
       </c>
       <c r="D24" t="n">
-        <v>75.08316071068407</v>
+        <v>662.7742129343801</v>
       </c>
       <c r="E24" t="n">
-        <v>26.98758356401289</v>
+        <v>503.5367579289247</v>
       </c>
       <c r="F24" t="n">
-        <v>26.98758356401289</v>
+        <v>357.0021999558096</v>
       </c>
       <c r="G24" t="n">
-        <v>26.98758356401289</v>
+        <v>218.5460607268954</v>
       </c>
       <c r="H24" t="n">
-        <v>26.98758356401289</v>
+        <v>107.8298154283848</v>
       </c>
       <c r="I24" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J24" t="n">
-        <v>51.68383790382275</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K24" t="n">
-        <v>55.20548687699397</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="L24" t="n">
-        <v>343.6235611619727</v>
+        <v>315.4056578489914</v>
       </c>
       <c r="M24" t="n">
-        <v>677.5949077666322</v>
+        <v>649.377004453649</v>
       </c>
       <c r="N24" t="n">
-        <v>1011.566254371292</v>
+        <v>983.3483510583064</v>
       </c>
       <c r="O24" t="n">
-        <v>1011.566254371292</v>
+        <v>1296.156035856275</v>
       </c>
       <c r="P24" t="n">
-        <v>1245.618931356892</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="Q24" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="R24" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="S24" t="n">
-        <v>1349.379178200644</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="T24" t="n">
-        <v>1148.299761661183</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="U24" t="n">
-        <v>1148.299761661183</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="V24" t="n">
-        <v>913.1476534294404</v>
+        <v>1349.379178200636</v>
       </c>
       <c r="W24" t="n">
-        <v>658.9102967012388</v>
+        <v>1348.985248410038</v>
       </c>
       <c r="X24" t="n">
-        <v>451.058796495706</v>
+        <v>1348.985248410038</v>
       </c>
       <c r="Y24" t="n">
-        <v>243.2984977307521</v>
+        <v>1154.376988896826</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="C25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="D25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="E25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="F25" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="G25" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="H25" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="I25" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="J25" t="n">
-        <v>26.98758356401289</v>
+        <v>26.98758356401273</v>
       </c>
       <c r="K25" t="n">
-        <v>31.16359793547469</v>
+        <v>31.16359793547453</v>
       </c>
       <c r="L25" t="n">
-        <v>92.03389318248107</v>
+        <v>92.03389318248091</v>
       </c>
       <c r="M25" t="n">
-        <v>166.6022079697953</v>
+        <v>166.6022079697952</v>
       </c>
       <c r="N25" t="n">
-        <v>244.8320713216989</v>
+        <v>244.8320713216988</v>
       </c>
       <c r="O25" t="n">
-        <v>301.0737164829853</v>
+        <v>301.0737164829851</v>
       </c>
       <c r="P25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="Q25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="R25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="S25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="T25" t="n">
-        <v>325.6774777340215</v>
+        <v>325.6774777340214</v>
       </c>
       <c r="U25" t="n">
-        <v>290.3223250532976</v>
+        <v>210.2923354295641</v>
       </c>
       <c r="V25" t="n">
-        <v>62.56132666337101</v>
+        <v>209.4512741612805</v>
       </c>
       <c r="W25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="X25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.98758356401289</v>
+        <v>173.8775310619231</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1470.43026241195</v>
       </c>
       <c r="C26" t="n">
-        <v>1252.672914732179</v>
+        <v>1252.672914732178</v>
       </c>
       <c r="D26" t="n">
         <v>1045.612385386068</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0293020484639</v>
+        <v>811.0293020484637</v>
       </c>
       <c r="F26" t="n">
-        <v>551.2485665194962</v>
+        <v>551.2485665194961</v>
       </c>
       <c r="G26" t="n">
         <v>283.4694079821379</v>
       </c>
       <c r="H26" t="n">
-        <v>97.02845994022849</v>
+        <v>97.02845994022852</v>
       </c>
       <c r="I26" t="n">
         <v>55.42406760879518</v>
@@ -6233,10 +6233,10 @@
         <v>957.3888953282826</v>
       </c>
       <c r="M26" t="n">
-        <v>1410.913039925113</v>
+        <v>1410.913039925114</v>
       </c>
       <c r="N26" t="n">
-        <v>1854.745712550432</v>
+        <v>1854.745712550433</v>
       </c>
       <c r="O26" t="n">
         <v>2236.915411798166</v>
@@ -6254,7 +6254,7 @@
         <v>2722.975969437759</v>
       </c>
       <c r="T26" t="n">
-        <v>2651.079146700412</v>
+        <v>2651.079146700413</v>
       </c>
       <c r="U26" t="n">
         <v>2548.440889023449</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>463.0154128728363</v>
+        <v>795.2997648282545</v>
       </c>
       <c r="C27" t="n">
-        <v>439.7675528523492</v>
+        <v>620.8467355471275</v>
       </c>
       <c r="D27" t="n">
-        <v>290.8331431910979</v>
+        <v>471.9123258858763</v>
       </c>
       <c r="E27" t="n">
-        <v>282.8008574462823</v>
+        <v>312.6748708804208</v>
       </c>
       <c r="F27" t="n">
-        <v>136.2662994731672</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2662994731672</v>
+        <v>166.1403129073058</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2662994731672</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="I27" t="n">
         <v>55.42406760879518</v>
@@ -6327,28 +6327,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R27" t="n">
-        <v>1906.964573546052</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="S27" t="n">
-        <v>1738.649404471157</v>
+        <v>1973.969464214065</v>
       </c>
       <c r="T27" t="n">
-        <v>1537.569987931696</v>
+        <v>1924.095216935244</v>
       </c>
       <c r="U27" t="n">
-        <v>1385.026844562695</v>
+        <v>1717.311196518114</v>
       </c>
       <c r="V27" t="n">
-        <v>1301.079905591593</v>
+        <v>1482.159088286371</v>
       </c>
       <c r="W27" t="n">
-        <v>1046.842548863391</v>
+        <v>1227.921731558169</v>
       </c>
       <c r="X27" t="n">
-        <v>838.9910486578583</v>
+        <v>1020.070231352636</v>
       </c>
       <c r="Y27" t="n">
-        <v>631.2307498929043</v>
+        <v>812.3099325876826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.5647648468622</v>
+        <v>93.49789674253944</v>
       </c>
       <c r="C28" t="n">
-        <v>76.8337511795952</v>
+        <v>75.7668830752724</v>
       </c>
       <c r="D28" t="n">
-        <v>76.8337511795952</v>
+        <v>76.83375117959531</v>
       </c>
       <c r="E28" t="n">
-        <v>80.06031455184488</v>
+        <v>80.06031455184497</v>
       </c>
       <c r="F28" t="n">
-        <v>84.28966340149611</v>
+        <v>84.28966340149617</v>
       </c>
       <c r="G28" t="n">
-        <v>66.03726239740523</v>
+        <v>66.03726239740526</v>
       </c>
       <c r="H28" t="n">
         <v>55.42406760879518</v>
@@ -6382,52 +6382,52 @@
         <v>55.42406760879518</v>
       </c>
       <c r="J28" t="n">
-        <v>55.42406760879518</v>
+        <v>127.1520055383379</v>
       </c>
       <c r="K28" t="n">
-        <v>145.0072285443579</v>
+        <v>131.3280199097997</v>
       </c>
       <c r="L28" t="n">
-        <v>205.8775237913643</v>
+        <v>192.1983151568061</v>
       </c>
       <c r="M28" t="n">
-        <v>280.4458385786785</v>
+        <v>414.9628163364736</v>
       </c>
       <c r="N28" t="n">
-        <v>358.6757019305821</v>
+        <v>641.3888660807303</v>
       </c>
       <c r="O28" t="n">
-        <v>563.1135334842216</v>
+        <v>697.6305112420166</v>
       </c>
       <c r="P28" t="n">
-        <v>735.913481127611</v>
+        <v>734.8466130232885</v>
       </c>
       <c r="Q28" t="n">
-        <v>817.7089563355019</v>
+        <v>816.6420882311793</v>
       </c>
       <c r="R28" t="n">
-        <v>800.1844630744112</v>
+        <v>799.1175949700886</v>
       </c>
       <c r="S28" t="n">
-        <v>729.1235264634669</v>
+        <v>728.0566583591443</v>
       </c>
       <c r="T28" t="n">
-        <v>651.0645820159839</v>
+        <v>649.9977139116613</v>
       </c>
       <c r="U28" t="n">
-        <v>513.0711716582973</v>
+        <v>512.0043035539748</v>
       </c>
       <c r="V28" t="n">
-        <v>409.5918527130503</v>
+        <v>408.5249846087277</v>
       </c>
       <c r="W28" t="n">
-        <v>271.3798519367297</v>
+        <v>270.312983832407</v>
       </c>
       <c r="X28" t="n">
-        <v>194.5954702993522</v>
+        <v>193.5286021950295</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.008060416462</v>
+        <v>123.9411923121393</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1252.672914732179</v>
       </c>
       <c r="D29" t="n">
-        <v>1045.612385386068</v>
+        <v>1045.612385386069</v>
       </c>
       <c r="E29" t="n">
-        <v>811.0293020484637</v>
+        <v>811.0293020484645</v>
       </c>
       <c r="F29" t="n">
-        <v>551.248566519496</v>
+        <v>551.2485665194969</v>
       </c>
       <c r="G29" t="n">
-        <v>283.4694079821379</v>
+        <v>283.4694079821388</v>
       </c>
       <c r="H29" t="n">
         <v>97.02845994022849</v>
@@ -6461,13 +6461,13 @@
         <v>55.42406760879518</v>
       </c>
       <c r="J29" t="n">
-        <v>234.4964218079618</v>
+        <v>234.496421807962</v>
       </c>
       <c r="K29" t="n">
-        <v>549.7127841695926</v>
+        <v>549.7127841695929</v>
       </c>
       <c r="L29" t="n">
-        <v>957.3888953282824</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M29" t="n">
         <v>1410.913039925113</v>
@@ -6476,7 +6476,7 @@
         <v>1854.745712550432</v>
       </c>
       <c r="O29" t="n">
-        <v>2236.915411798165</v>
+        <v>2236.915411798166</v>
       </c>
       <c r="P29" t="n">
         <v>2547.128195336517</v>
@@ -6491,19 +6491,19 @@
         <v>2722.975969437759</v>
       </c>
       <c r="T29" t="n">
-        <v>2651.079146700413</v>
+        <v>2651.079146700412</v>
       </c>
       <c r="U29" t="n">
-        <v>2548.440889023449</v>
+        <v>2548.44088902345</v>
       </c>
       <c r="V29" t="n">
-        <v>2368.583170940518</v>
+        <v>2368.583170940519</v>
       </c>
       <c r="W29" t="n">
-        <v>2167.019684931044</v>
+        <v>2167.019684931045</v>
       </c>
       <c r="X29" t="n">
-        <v>1944.759095930604</v>
+        <v>1944.759095930605</v>
       </c>
       <c r="Y29" t="n">
         <v>1705.824933215433</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>538.5581786986335</v>
+        <v>471.4678999202618</v>
       </c>
       <c r="C30" t="n">
-        <v>364.1051494175065</v>
+        <v>297.0148706391348</v>
       </c>
       <c r="D30" t="n">
-        <v>364.1051494175065</v>
+        <v>148.0804609778835</v>
       </c>
       <c r="E30" t="n">
-        <v>356.0728636726909</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="F30" t="n">
-        <v>304.59645213622</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G30" t="n">
-        <v>166.1403129073058</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="H30" t="n">
         <v>55.42406760879518</v>
@@ -6564,28 +6564,28 @@
         <v>1991.07946402832</v>
       </c>
       <c r="R30" t="n">
-        <v>1906.964573546052</v>
+        <v>1991.07946402832</v>
       </c>
       <c r="S30" t="n">
-        <v>1738.649404471157</v>
+        <v>1822.764294953425</v>
       </c>
       <c r="T30" t="n">
-        <v>1537.569987931696</v>
+        <v>1621.684878413964</v>
       </c>
       <c r="U30" t="n">
-        <v>1309.364441127853</v>
+        <v>1393.479331610121</v>
       </c>
       <c r="V30" t="n">
-        <v>1074.21233289611</v>
+        <v>1309.532392639018</v>
       </c>
       <c r="W30" t="n">
-        <v>819.9749761679084</v>
+        <v>1055.295035910817</v>
       </c>
       <c r="X30" t="n">
-        <v>763.3286452230154</v>
+        <v>847.4435357052837</v>
       </c>
       <c r="Y30" t="n">
-        <v>555.5683464580616</v>
+        <v>639.6832369403298</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.79411369651343</v>
+        <v>102.0206770687631</v>
       </c>
       <c r="C31" t="n">
-        <v>81.06310002924643</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="D31" t="n">
-        <v>81.06310002924643</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="E31" t="n">
         <v>84.28966340149611</v>
@@ -6616,55 +6616,55 @@
         <v>55.42406760879518</v>
       </c>
       <c r="I31" t="n">
-        <v>56.51184718084777</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J31" t="n">
-        <v>128.2397851103905</v>
+        <v>127.152005538338</v>
       </c>
       <c r="K31" t="n">
-        <v>149.2365773940091</v>
+        <v>234.2586159741497</v>
       </c>
       <c r="L31" t="n">
-        <v>358.3030590333686</v>
+        <v>295.1289112211561</v>
       </c>
       <c r="M31" t="n">
-        <v>432.8713738206829</v>
+        <v>517.8934124008235</v>
       </c>
       <c r="N31" t="n">
-        <v>659.2974235649397</v>
+        <v>744.3194621450803</v>
       </c>
       <c r="O31" t="n">
-        <v>715.539068726226</v>
+        <v>800.5611073063666</v>
       </c>
       <c r="P31" t="n">
-        <v>740.1428299772622</v>
+        <v>825.1648685574028</v>
       </c>
       <c r="Q31" t="n">
-        <v>821.938305185153</v>
+        <v>825.1648685574028</v>
       </c>
       <c r="R31" t="n">
-        <v>804.4138119240623</v>
+        <v>807.6403752963121</v>
       </c>
       <c r="S31" t="n">
-        <v>733.352875313118</v>
+        <v>736.5794386853678</v>
       </c>
       <c r="T31" t="n">
-        <v>655.293930865635</v>
+        <v>658.5204942378848</v>
       </c>
       <c r="U31" t="n">
-        <v>517.3005205079485</v>
+        <v>520.5270838801982</v>
       </c>
       <c r="V31" t="n">
-        <v>413.8212015627015</v>
+        <v>417.0477649349513</v>
       </c>
       <c r="W31" t="n">
-        <v>275.6092007863808</v>
+        <v>278.8357641586306</v>
       </c>
       <c r="X31" t="n">
-        <v>198.8248191490034</v>
+        <v>202.0513825212531</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.2374092661132</v>
+        <v>132.4639726383629</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6680,49 @@
         <v>1252.672914732178</v>
       </c>
       <c r="D32" t="n">
-        <v>1045.612385386067</v>
+        <v>1045.612385386068</v>
       </c>
       <c r="E32" t="n">
         <v>811.0293020484633</v>
       </c>
       <c r="F32" t="n">
-        <v>551.2485665194956</v>
+        <v>551.2485665194955</v>
       </c>
       <c r="G32" t="n">
-        <v>283.4694079821377</v>
+        <v>283.4694079821375</v>
       </c>
       <c r="H32" t="n">
-        <v>97.02845994022843</v>
+        <v>97.02845994022849</v>
       </c>
       <c r="I32" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="J32" t="n">
-        <v>234.4964218079622</v>
+        <v>234.496421807962</v>
       </c>
       <c r="K32" t="n">
-        <v>549.7127841695919</v>
+        <v>549.7127841695926</v>
       </c>
       <c r="L32" t="n">
-        <v>957.3888953282817</v>
+        <v>957.3888953282826</v>
       </c>
       <c r="M32" t="n">
         <v>1410.913039925113</v>
       </c>
       <c r="N32" t="n">
-        <v>1854.745712550431</v>
+        <v>1854.745712550432</v>
       </c>
       <c r="O32" t="n">
-        <v>2236.915411798165</v>
+        <v>2236.915411798166</v>
       </c>
       <c r="P32" t="n">
-        <v>2547.128195336516</v>
+        <v>2547.128195336517</v>
       </c>
       <c r="Q32" t="n">
-        <v>2739.770339076661</v>
+        <v>2739.770339076662</v>
       </c>
       <c r="R32" t="n">
-        <v>2771.203380439758</v>
+        <v>2771.203380439759</v>
       </c>
       <c r="S32" t="n">
         <v>2722.975969437758</v>
@@ -6731,13 +6731,13 @@
         <v>2651.079146700412</v>
       </c>
       <c r="U32" t="n">
-        <v>2548.440889023448</v>
+        <v>2548.440889023449</v>
       </c>
       <c r="V32" t="n">
-        <v>2368.583170940517</v>
+        <v>2368.583170940518</v>
       </c>
       <c r="W32" t="n">
-        <v>2167.019684931043</v>
+        <v>2167.019684931044</v>
       </c>
       <c r="X32" t="n">
         <v>1944.759095930604</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>387.3530094379935</v>
+        <v>684.583519529744</v>
       </c>
       <c r="C33" t="n">
-        <v>212.8999801568665</v>
+        <v>510.130490248617</v>
       </c>
       <c r="D33" t="n">
-        <v>212.8999801568665</v>
+        <v>361.1960805873657</v>
       </c>
       <c r="E33" t="n">
-        <v>204.867694412051</v>
+        <v>201.9586255819102</v>
       </c>
       <c r="F33" t="n">
-        <v>58.33313643893595</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="G33" t="n">
         <v>55.42406760879518</v>
@@ -6804,25 +6804,25 @@
         <v>1906.964573546052</v>
       </c>
       <c r="S33" t="n">
-        <v>1738.649404471157</v>
+        <v>1884.674745302268</v>
       </c>
       <c r="T33" t="n">
-        <v>1537.569987931696</v>
+        <v>1834.800498023446</v>
       </c>
       <c r="U33" t="n">
-        <v>1309.364441127853</v>
+        <v>1606.594951219603</v>
       </c>
       <c r="V33" t="n">
-        <v>1225.41750215675</v>
+        <v>1371.44284298786</v>
       </c>
       <c r="W33" t="n">
-        <v>971.1801454285483</v>
+        <v>1268.410655520299</v>
       </c>
       <c r="X33" t="n">
-        <v>763.3286452230154</v>
+        <v>1060.559155314766</v>
       </c>
       <c r="Y33" t="n">
-        <v>555.5683464580616</v>
+        <v>852.7988565498119</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.56476484686192</v>
+        <v>102.0206770687631</v>
       </c>
       <c r="C34" t="n">
-        <v>76.83375117959497</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="D34" t="n">
-        <v>76.83375117959497</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="E34" t="n">
-        <v>80.06031455184471</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="F34" t="n">
-        <v>84.289663401496</v>
+        <v>84.28966340149611</v>
       </c>
       <c r="G34" t="n">
-        <v>66.03726239740517</v>
+        <v>66.03726239740523</v>
       </c>
       <c r="H34" t="n">
         <v>55.42406760879518</v>
       </c>
       <c r="I34" t="n">
-        <v>56.51184718084782</v>
+        <v>55.42406760879518</v>
       </c>
       <c r="J34" t="n">
-        <v>128.2397851103906</v>
+        <v>127.152005538338</v>
       </c>
       <c r="K34" t="n">
-        <v>280.6119858742056</v>
+        <v>279.5242063021529</v>
       </c>
       <c r="L34" t="n">
-        <v>489.6784675135652</v>
+        <v>443.3250976135093</v>
       </c>
       <c r="M34" t="n">
-        <v>576.8382113633841</v>
+        <v>517.8934124008235</v>
       </c>
       <c r="N34" t="n">
-        <v>655.0680747152876</v>
+        <v>596.1232757527271</v>
       </c>
       <c r="O34" t="n">
-        <v>711.3097198765739</v>
+        <v>800.5611073063666</v>
       </c>
       <c r="P34" t="n">
-        <v>735.9134811276101</v>
+        <v>825.1648685574028</v>
       </c>
       <c r="Q34" t="n">
-        <v>817.7089563355011</v>
+        <v>825.1648685574028</v>
       </c>
       <c r="R34" t="n">
-        <v>800.1844630744105</v>
+        <v>807.6403752963121</v>
       </c>
       <c r="S34" t="n">
-        <v>729.1235264634662</v>
+        <v>736.5794386853678</v>
       </c>
       <c r="T34" t="n">
-        <v>651.0645820159833</v>
+        <v>658.5204942378848</v>
       </c>
       <c r="U34" t="n">
-        <v>513.0711716582969</v>
+        <v>520.5270838801982</v>
       </c>
       <c r="V34" t="n">
-        <v>409.5918527130499</v>
+        <v>417.0477649349513</v>
       </c>
       <c r="W34" t="n">
-        <v>271.3798519367292</v>
+        <v>278.8357641586306</v>
       </c>
       <c r="X34" t="n">
-        <v>194.5954702993518</v>
+        <v>202.0513825212531</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.0080604164617</v>
+        <v>132.4639726383629</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.3521304873558</v>
+        <v>876.352130487356</v>
       </c>
       <c r="C35" t="n">
-        <v>746.5342750101792</v>
+        <v>746.5342750101795</v>
       </c>
       <c r="D35" t="n">
-        <v>627.4132378666637</v>
+        <v>627.4132378666641</v>
       </c>
       <c r="E35" t="n">
-        <v>480.7696467316546</v>
+        <v>480.7696467316549</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9284034052821</v>
+        <v>308.9284034052824</v>
       </c>
       <c r="G35" t="n">
-        <v>129.0887370705191</v>
+        <v>129.0887370705192</v>
       </c>
       <c r="H35" t="n">
         <v>30.58728123120493</v>
@@ -6935,16 +6935,16 @@
         <v>30.58728123120493</v>
       </c>
       <c r="J35" t="n">
-        <v>61.46344903801847</v>
+        <v>61.46344903801855</v>
       </c>
       <c r="K35" t="n">
-        <v>228.4836250072961</v>
+        <v>228.4836250072963</v>
       </c>
       <c r="L35" t="n">
-        <v>487.9635497736329</v>
+        <v>487.9635497736331</v>
       </c>
       <c r="M35" t="n">
-        <v>793.2915079781105</v>
+        <v>793.2915079781108</v>
       </c>
       <c r="N35" t="n">
         <v>1088.927994211076</v>
@@ -6956,7 +6956,7 @@
         <v>1484.918104212455</v>
       </c>
       <c r="Q35" t="n">
-        <v>1529.364061560246</v>
+        <v>1529.364061560247</v>
       </c>
       <c r="R35" t="n">
         <v>1529.364061560247</v>
@@ -6968,7 +6968,7 @@
         <v>1529.364061560247</v>
       </c>
       <c r="U35" t="n">
-        <v>1514.665296085878</v>
+        <v>1514.665296085879</v>
       </c>
       <c r="V35" t="n">
         <v>1422.747070205543</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>351.4874900337638</v>
+        <v>177.12183920432</v>
       </c>
       <c r="C36" t="n">
-        <v>338.7591458979117</v>
+        <v>177.12183920432</v>
       </c>
       <c r="D36" t="n">
-        <v>189.8247362366604</v>
+        <v>177.12183920432</v>
       </c>
       <c r="E36" t="n">
-        <v>30.58728123120493</v>
+        <v>177.12183920432</v>
       </c>
       <c r="F36" t="n">
         <v>30.58728123120493</v>
@@ -7014,19 +7014,19 @@
         <v>30.58728123120493</v>
       </c>
       <c r="J36" t="n">
-        <v>55.2835355710148</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1142109140769</v>
+        <v>30.58728123120493</v>
       </c>
       <c r="L36" t="n">
-        <v>434.5159272585719</v>
+        <v>319.0053555161837</v>
       </c>
       <c r="M36" t="n">
-        <v>813.033532494733</v>
+        <v>697.5229607523447</v>
       </c>
       <c r="N36" t="n">
-        <v>1191.551137730894</v>
+        <v>878.743452932925</v>
       </c>
       <c r="O36" t="n">
         <v>1191.551137730894</v>
@@ -7044,22 +7044,22 @@
         <v>1276.934002003084</v>
       </c>
       <c r="T36" t="n">
-        <v>1276.934002003084</v>
+        <v>1075.854585463623</v>
       </c>
       <c r="U36" t="n">
-        <v>1048.728455199241</v>
+        <v>847.6490386597795</v>
       </c>
       <c r="V36" t="n">
-        <v>813.5763469674982</v>
+        <v>612.4969304280369</v>
       </c>
       <c r="W36" t="n">
-        <v>559.3389902392967</v>
+        <v>358.2595736998352</v>
       </c>
       <c r="X36" t="n">
-        <v>351.4874900337638</v>
+        <v>177.12183920432</v>
       </c>
       <c r="Y36" t="n">
-        <v>351.4874900337638</v>
+        <v>177.12183920432</v>
       </c>
     </row>
     <row r="37">
@@ -7132,10 +7132,10 @@
         <v>263.6834305034703</v>
       </c>
       <c r="W37" t="n">
-        <v>30.58728123120493</v>
+        <v>213.4109219297447</v>
       </c>
       <c r="X37" t="n">
-        <v>30.58728123120493</v>
+        <v>213.4109219297447</v>
       </c>
       <c r="Y37" t="n">
         <v>30.58728123120493</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>876.3521304873552</v>
+        <v>876.3521304873566</v>
       </c>
       <c r="C38" t="n">
-        <v>746.5342750101786</v>
+        <v>746.53427501018</v>
       </c>
       <c r="D38" t="n">
-        <v>627.4132378666632</v>
+        <v>627.4132378666645</v>
       </c>
       <c r="E38" t="n">
-        <v>480.7696467316541</v>
+        <v>480.7696467316554</v>
       </c>
       <c r="F38" t="n">
-        <v>308.9284034052816</v>
+        <v>308.9284034052828</v>
       </c>
       <c r="G38" t="n">
-        <v>129.0887370705191</v>
+        <v>129.0887370705192</v>
       </c>
       <c r="H38" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="I38" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J38" t="n">
-        <v>61.46344903801855</v>
+        <v>61.46344903801849</v>
       </c>
       <c r="K38" t="n">
-        <v>228.4836250072963</v>
+        <v>228.4836250072961</v>
       </c>
       <c r="L38" t="n">
-        <v>487.9635497736331</v>
+        <v>487.963549773633</v>
       </c>
       <c r="M38" t="n">
-        <v>793.2915079781106</v>
+        <v>793.2915079781105</v>
       </c>
       <c r="N38" t="n">
         <v>1088.927994211076</v>
@@ -7193,31 +7193,31 @@
         <v>1484.918104212455</v>
       </c>
       <c r="Q38" t="n">
-        <v>1529.364061560247</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="R38" t="n">
-        <v>1529.364061560247</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="S38" t="n">
-        <v>1529.364061560247</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="T38" t="n">
-        <v>1529.364061560247</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="U38" t="n">
-        <v>1514.665296085878</v>
+        <v>1514.665296085879</v>
       </c>
       <c r="V38" t="n">
-        <v>1422.747070205543</v>
+        <v>1422.747070205544</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.123076398663</v>
+        <v>1309.123076398665</v>
       </c>
       <c r="X38" t="n">
-        <v>1174.801979600819</v>
+        <v>1174.80197960082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1023.807309088242</v>
+        <v>1023.807309088243</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>579.693036837607</v>
+        <v>663.9989608152814</v>
       </c>
       <c r="C39" t="n">
-        <v>405.24000755648</v>
+        <v>489.5459315341544</v>
       </c>
       <c r="D39" t="n">
-        <v>368.6803163672026</v>
+        <v>340.6115218729032</v>
       </c>
       <c r="E39" t="n">
-        <v>368.6803163672026</v>
+        <v>181.3740668674477</v>
       </c>
       <c r="F39" t="n">
-        <v>222.1457583940876</v>
+        <v>34.83950889433262</v>
       </c>
       <c r="G39" t="n">
-        <v>222.1457583940876</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="H39" t="n">
-        <v>111.429513095577</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="I39" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J39" t="n">
-        <v>55.2835355710148</v>
+        <v>55.28353557101481</v>
       </c>
       <c r="K39" t="n">
-        <v>224.1142109140769</v>
+        <v>224.114210914077</v>
       </c>
       <c r="L39" t="n">
-        <v>459.5211662899557</v>
+        <v>512.5322851990557</v>
       </c>
       <c r="M39" t="n">
-        <v>838.0387715261168</v>
+        <v>512.5322851990557</v>
       </c>
       <c r="N39" t="n">
-        <v>1216.556376762278</v>
+        <v>878.7434529329259</v>
       </c>
       <c r="O39" t="n">
-        <v>1529.364061560247</v>
+        <v>1191.551137730895</v>
       </c>
       <c r="P39" t="n">
-        <v>1529.364061560247</v>
+        <v>1425.603814716495</v>
       </c>
       <c r="Q39" t="n">
-        <v>1529.364061560247</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="R39" t="n">
-        <v>1445.249171077979</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="S39" t="n">
-        <v>1276.934002003084</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="T39" t="n">
-        <v>1276.934002003084</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="U39" t="n">
-        <v>1276.934002003084</v>
+        <v>1529.364061560248</v>
       </c>
       <c r="V39" t="n">
-        <v>1041.781893771341</v>
+        <v>1294.211953328505</v>
       </c>
       <c r="W39" t="n">
-        <v>787.5445370431398</v>
+        <v>1039.974596600303</v>
       </c>
       <c r="X39" t="n">
-        <v>579.693036837607</v>
+        <v>1039.974596600303</v>
       </c>
       <c r="Y39" t="n">
-        <v>579.693036837607</v>
+        <v>832.2142978353495</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="C40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="D40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="E40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="F40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="G40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="H40" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="I40" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="J40" t="n">
-        <v>30.58728123120493</v>
+        <v>30.58728123120495</v>
       </c>
       <c r="K40" t="n">
-        <v>34.76329560266673</v>
+        <v>34.76329560266674</v>
       </c>
       <c r="L40" t="n">
-        <v>95.63359084967311</v>
+        <v>95.63359084967313</v>
       </c>
       <c r="M40" t="n">
         <v>170.2019056369874</v>
@@ -7348,34 +7348,34 @@
         <v>304.6734141501773</v>
       </c>
       <c r="P40" t="n">
-        <v>329.2771754012135</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="Q40" t="n">
-        <v>329.2771754012135</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="R40" t="n">
-        <v>329.2771754012135</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="S40" t="n">
-        <v>329.2771754012135</v>
+        <v>329.2771754012136</v>
       </c>
       <c r="T40" t="n">
-        <v>329.2771754012135</v>
+        <v>308.2718987519237</v>
       </c>
       <c r="U40" t="n">
-        <v>279.2232572461222</v>
+        <v>258.2179805968323</v>
       </c>
       <c r="V40" t="n">
-        <v>80.85978980493049</v>
+        <v>242.6781538541805</v>
       </c>
       <c r="W40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="X40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.58728123120493</v>
+        <v>192.4056452804549</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.5369642907573</v>
+        <v>976.536964290748</v>
       </c>
       <c r="C41" t="n">
-        <v>830.6764393483302</v>
+        <v>830.6764393483222</v>
       </c>
       <c r="D41" t="n">
-        <v>695.5127327395643</v>
+        <v>695.5127327395578</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8264721393047</v>
+        <v>532.8264721392998</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9425593476817</v>
+        <v>344.9425593476783</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0602235476677</v>
+        <v>149.060223547666</v>
       </c>
       <c r="H41" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I41" t="n">
-        <v>34.51609824310302</v>
+        <v>64.20570928393778</v>
       </c>
       <c r="J41" t="n">
-        <v>65.39226604991656</v>
+        <v>95.08187709075132</v>
       </c>
       <c r="K41" t="n">
-        <v>232.4124420191942</v>
+        <v>262.1020530600289</v>
       </c>
       <c r="L41" t="n">
-        <v>659.5491577775941</v>
+        <v>521.5819778263658</v>
       </c>
       <c r="M41" t="n">
-        <v>964.8771159820717</v>
+        <v>826.9099360308435</v>
       </c>
       <c r="N41" t="n">
-        <v>1260.513602215037</v>
+        <v>1122.546422263809</v>
       </c>
       <c r="O41" t="n">
-        <v>1494.487115070418</v>
+        <v>1356.519935119189</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.358954807361</v>
+        <v>1518.536532265188</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.804912155153</v>
+        <v>1600.707404385352</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.804912155153</v>
+        <v>1702.606521713321</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.804912155153</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.804912155151</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U41" t="n">
-        <v>1695.063477215533</v>
+        <v>1695.063477215516</v>
       </c>
       <c r="V41" t="n">
-        <v>1587.102581869947</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.435918597817</v>
+        <v>1457.435918597803</v>
       </c>
       <c r="X41" t="n">
-        <v>1307.072152334722</v>
+        <v>1307.072152334709</v>
       </c>
       <c r="Y41" t="n">
-        <v>1140.034812356894</v>
+        <v>1140.034812356884</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>602.9061970471637</v>
+        <v>514.7411405028002</v>
       </c>
       <c r="C42" t="n">
-        <v>428.4531677660367</v>
+        <v>340.2881112216732</v>
       </c>
       <c r="D42" t="n">
-        <v>283.6884827705279</v>
+        <v>340.2881112216732</v>
       </c>
       <c r="E42" t="n">
-        <v>283.6884827705279</v>
+        <v>181.0506562162177</v>
       </c>
       <c r="F42" t="n">
-        <v>283.6884827705279</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G42" t="n">
-        <v>145.2323435416136</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I42" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J42" t="n">
-        <v>59.21235258291289</v>
+        <v>59.21235258291253</v>
       </c>
       <c r="K42" t="n">
-        <v>228.043027925975</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L42" t="n">
-        <v>516.4611022109538</v>
+        <v>516.4611022109534</v>
       </c>
       <c r="M42" t="n">
-        <v>894.6967072182479</v>
+        <v>905.0106127401236</v>
       </c>
       <c r="N42" t="n">
-        <v>1309.23698051343</v>
+        <v>1178.944550371564</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.044665311399</v>
+        <v>1491.752235169533</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.044665311399</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.804912155151</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R42" t="n">
-        <v>1641.690021672883</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="S42" t="n">
-        <v>1473.374852597989</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T42" t="n">
-        <v>1473.374852597989</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U42" t="n">
-        <v>1245.169305794145</v>
+        <v>1497.59936535129</v>
       </c>
       <c r="V42" t="n">
-        <v>1010.017197562403</v>
+        <v>1262.447257119548</v>
       </c>
       <c r="W42" t="n">
-        <v>978.8818328321858</v>
+        <v>1008.209900391346</v>
       </c>
       <c r="X42" t="n">
-        <v>978.8818328321858</v>
+        <v>800.3584001858133</v>
       </c>
       <c r="Y42" t="n">
-        <v>771.1215340672318</v>
+        <v>592.5981014208594</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="C43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="D43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="E43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="F43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K43" t="n">
-        <v>38.69211261456482</v>
+        <v>38.69211261456446</v>
       </c>
       <c r="L43" t="n">
-        <v>99.5624078615712</v>
+        <v>99.56240786157085</v>
       </c>
       <c r="M43" t="n">
-        <v>174.1307226488855</v>
+        <v>174.1307226488851</v>
       </c>
       <c r="N43" t="n">
-        <v>252.3605860007891</v>
+        <v>252.3605860007887</v>
       </c>
       <c r="O43" t="n">
-        <v>308.6022311620754</v>
+        <v>308.602231162075</v>
       </c>
       <c r="P43" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R43" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S43" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T43" t="n">
-        <v>203.3979190103559</v>
+        <v>327.0438707029744</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3013313900141</v>
+        <v>137.3013313900096</v>
       </c>
       <c r="V43" t="n">
-        <v>105.7188351821118</v>
+        <v>105.7188351821087</v>
       </c>
       <c r="W43" t="n">
-        <v>39.40365714313576</v>
+        <v>39.40365714313403</v>
       </c>
       <c r="X43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.5369642907563</v>
+        <v>976.5369642907473</v>
       </c>
       <c r="C44" t="n">
-        <v>830.6764393483293</v>
+        <v>830.6764393483218</v>
       </c>
       <c r="D44" t="n">
-        <v>695.5127327395635</v>
+        <v>695.5127327395574</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8264721393039</v>
+        <v>532.8264721392992</v>
       </c>
       <c r="F44" t="n">
-        <v>344.942559347681</v>
+        <v>344.9425593476776</v>
       </c>
       <c r="G44" t="n">
-        <v>149.0602235476677</v>
+        <v>149.060223547666</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51609824310302</v>
+        <v>64.20570928393775</v>
       </c>
       <c r="J44" t="n">
-        <v>234.705909191112</v>
+        <v>95.08187709075129</v>
       </c>
       <c r="K44" t="n">
-        <v>401.7260851603896</v>
+        <v>262.1020530600289</v>
       </c>
       <c r="L44" t="n">
-        <v>661.2060099267264</v>
+        <v>521.5819778263658</v>
       </c>
       <c r="M44" t="n">
-        <v>966.5339681312041</v>
+        <v>826.9099360308435</v>
       </c>
       <c r="N44" t="n">
-        <v>1262.17045436417</v>
+        <v>1122.546422263809</v>
       </c>
       <c r="O44" t="n">
-        <v>1496.14396721955</v>
+        <v>1356.519935119189</v>
       </c>
       <c r="P44" t="n">
-        <v>1658.160564365548</v>
+        <v>1518.536532265188</v>
       </c>
       <c r="Q44" t="n">
-        <v>1702.60652171334</v>
+        <v>1600.707404385352</v>
       </c>
       <c r="R44" t="n">
-        <v>1702.60652171334</v>
+        <v>1702.606521713321</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.804912155151</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.80491215515</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="U44" t="n">
-        <v>1695.063477215531</v>
+        <v>1695.063477215516</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.102581869945</v>
+        <v>1587.102581869931</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.435918597816</v>
+        <v>1457.435918597803</v>
       </c>
       <c r="X44" t="n">
-        <v>1307.072152334721</v>
+        <v>1307.072152334709</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.034812356894</v>
+        <v>1140.034812356883</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>332.2096924774728</v>
+        <v>570.0647527472966</v>
       </c>
       <c r="C45" t="n">
-        <v>332.2096924774728</v>
+        <v>570.0647527472966</v>
       </c>
       <c r="D45" t="n">
-        <v>332.2096924774728</v>
+        <v>421.1303430860452</v>
       </c>
       <c r="E45" t="n">
-        <v>172.9722374720173</v>
+        <v>261.8928880805897</v>
       </c>
       <c r="F45" t="n">
-        <v>172.9722374720173</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="G45" t="n">
-        <v>34.51609824310302</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="H45" t="n">
-        <v>34.51609824310302</v>
+        <v>115.3583301074747</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J45" t="n">
-        <v>59.21235258291289</v>
+        <v>59.21235258291253</v>
       </c>
       <c r="K45" t="n">
-        <v>228.043027925975</v>
+        <v>228.0430279259747</v>
       </c>
       <c r="L45" t="n">
-        <v>506.1471966890776</v>
+        <v>516.4611022109534</v>
       </c>
       <c r="M45" t="n">
-        <v>894.6967072182479</v>
+        <v>764.4042770763817</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.23698051343</v>
+        <v>1178.944550371564</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.044665311399</v>
+        <v>1491.752235169533</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.044665311399</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.804912155151</v>
+        <v>1725.804912155133</v>
       </c>
       <c r="R45" t="n">
-        <v>1641.690021672883</v>
+        <v>1641.690021672865</v>
       </c>
       <c r="S45" t="n">
-        <v>1473.374852597989</v>
+        <v>1641.690021672865</v>
       </c>
       <c r="T45" t="n">
-        <v>1473.374852597989</v>
+        <v>1440.610605133404</v>
       </c>
       <c r="U45" t="n">
-        <v>1245.169305794145</v>
+        <v>1435.429853492263</v>
       </c>
       <c r="V45" t="n">
-        <v>1010.017197562403</v>
+        <v>1200.27774526052</v>
       </c>
       <c r="W45" t="n">
-        <v>755.7798408342012</v>
+        <v>946.0403885323185</v>
       </c>
       <c r="X45" t="n">
-        <v>547.9283406286684</v>
+        <v>946.0403885323185</v>
       </c>
       <c r="Y45" t="n">
-        <v>340.1680418637144</v>
+        <v>738.2800897673646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.51609824310302</v>
+        <v>158.1620499357269</v>
       </c>
       <c r="C46" t="n">
-        <v>34.51609824310302</v>
+        <v>158.1620499357269</v>
       </c>
       <c r="D46" t="n">
-        <v>34.51609824310302</v>
+        <v>158.1620499357269</v>
       </c>
       <c r="E46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="F46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="G46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="H46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51609824310302</v>
+        <v>34.51609824310267</v>
       </c>
       <c r="K46" t="n">
-        <v>38.69211261456482</v>
+        <v>38.69211261456446</v>
       </c>
       <c r="L46" t="n">
-        <v>99.5624078615712</v>
+        <v>99.56240786157085</v>
       </c>
       <c r="M46" t="n">
-        <v>174.1307226488855</v>
+        <v>174.1307226488851</v>
       </c>
       <c r="N46" t="n">
-        <v>252.3605860007891</v>
+        <v>252.3605860007887</v>
       </c>
       <c r="O46" t="n">
-        <v>308.6022311620754</v>
+        <v>308.602231162075</v>
       </c>
       <c r="P46" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="Q46" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="R46" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="S46" t="n">
-        <v>333.2059924131116</v>
+        <v>333.2059924131113</v>
       </c>
       <c r="T46" t="n">
-        <v>327.0438707029734</v>
+        <v>327.0438707029744</v>
       </c>
       <c r="U46" t="n">
-        <v>260.9472830826315</v>
+        <v>260.9472830826339</v>
       </c>
       <c r="V46" t="n">
-        <v>229.3647868747292</v>
+        <v>229.364786874733</v>
       </c>
       <c r="W46" t="n">
-        <v>163.0496088357532</v>
+        <v>163.0496088357583</v>
       </c>
       <c r="X46" t="n">
-        <v>158.1620499357205</v>
+        <v>158.1620499357269</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.51609824310302</v>
+        <v>158.1620499357269</v>
       </c>
     </row>
   </sheetData>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>155.4381641173489</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,10 +8702,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>202.63332702798</v>
       </c>
       <c r="P11" t="n">
-        <v>312.3391023905409</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>410.575605240393</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N12" t="n">
-        <v>281.1843342534323</v>
+        <v>335.7891357408593</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>77.89496089494264</v>
       </c>
       <c r="P12" t="n">
-        <v>82.04592319993664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>105.2689575906448</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>137.9085668823631</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>239.4943603156929</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>219.7148086383388</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>223.6721888111158</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681398</v>
       </c>
       <c r="M15" t="n">
-        <v>410.575605240393</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N15" t="n">
-        <v>60.61482556054112</v>
+        <v>206.3448353805134</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>316.2415856699859</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>188.5267603486281</v>
       </c>
       <c r="Q17" t="n">
         <v>167.4200842479937</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.1453238860555</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>93.9292013125158</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681398</v>
       </c>
       <c r="M18" t="n">
-        <v>410.575605240393</v>
+        <v>389.496856210267</v>
       </c>
       <c r="N18" t="n">
-        <v>215.3035245134945</v>
+        <v>397.9596201107002</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>137.9085668823631</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>177.16660662611</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9416,10 +9416,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>219.7148086383466</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>167.4200842479937</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>79.50895713681398</v>
       </c>
       <c r="M21" t="n">
-        <v>264.974226893726</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N21" t="n">
-        <v>60.61482556054112</v>
+        <v>311.1531655257176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9647,16 +9647,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>259.1800701772266</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>188.5267603486281</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>167.4200842479937</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K24" t="n">
-        <v>97.48642249753723</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>410.575605240393</v>
+        <v>410.575605240391</v>
       </c>
       <c r="N24" t="n">
-        <v>397.9596201107022</v>
+        <v>397.9596201107003</v>
       </c>
       <c r="O24" t="n">
-        <v>77.89496089494264</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>135.8066730427257</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>101.1453238860555</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>93.9292013125158</v>
       </c>
       <c r="L36" t="n">
-        <v>292.0359433433746</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>455.5718260802936</v>
       </c>
       <c r="N36" t="n">
-        <v>442.9558409506027</v>
+        <v>243.6658277631475</v>
       </c>
       <c r="O36" t="n">
-        <v>77.89496089494264</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>317.2937605467926</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>455.5718260802936</v>
+        <v>73.23081069023189</v>
       </c>
       <c r="N39" t="n">
-        <v>442.9558409506027</v>
+        <v>430.525095998794</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>82.04592319993664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.2689575906448</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,19 +11145,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>455.2869773642664</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>337.3157726630062</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>82.04592319993664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,10 +11379,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>360.4222589177257</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>323.6784620694524</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>82.04592319993664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>105.2689575906448</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9059052411879</v>
       </c>
       <c r="C11" t="n">
-        <v>50.04900230421172</v>
+        <v>222.4449553487148</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>211.8551051983902</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1024336499691</v>
       </c>
       <c r="F11" t="n">
-        <v>264.0481093194193</v>
+        <v>264.0481093194187</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9665480977258</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>54.61031803772137</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.04303565571389</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>108.4770562459349</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.9243220478427</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>120.1507273929846</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9031642561768</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4100022337614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>222.4449553487149</v>
       </c>
       <c r="D14" t="n">
-        <v>211.8551051983908</v>
+        <v>211.8551051983903</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1024336499696</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0481093194193</v>
+        <v>186.4809768185033</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.4417197072316</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>108.4770562459349</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>184.9243220478427</v>
+        <v>184.9243220478422</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4130322951203</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9031642561768</v>
+        <v>226.9031642561764</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.67964777354203</v>
+        <v>243.4100022337609</v>
       </c>
     </row>
     <row r="15">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>924837.5775569743</v>
+        <v>924837.577556974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>924837.5775569745</v>
+        <v>924837.5775569738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1054639.284792836</v>
+        <v>1054639.284792835</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1054639.284792836</v>
+        <v>1054639.284792835</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1054639.284792836</v>
+        <v>1054639.284792835</v>
       </c>
     </row>
     <row r="10">
@@ -26317,7 +26317,7 @@
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
         <v>456976.1415905934</v>
@@ -26326,34 +26326,34 @@
         <v>456976.1415905934</v>
       </c>
       <c r="G2" t="n">
-        <v>533677.1504117835</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="H2" t="n">
-        <v>533677.1504117836</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117837</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="J2" t="n">
-        <v>533677.1504117853</v>
+        <v>533677.1504117851</v>
       </c>
       <c r="K2" t="n">
+        <v>533677.1504117849</v>
+      </c>
+      <c r="L2" t="n">
         <v>533677.1504117848</v>
-      </c>
-      <c r="L2" t="n">
-        <v>533677.1504117849</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117836</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117834</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.150411784</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>316558.6634877601</v>
+        <v>316558.6634877599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86781.64499674742</v>
+        <v>86781.64499674756</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>125975.7919503421</v>
+        <v>125975.7919503424</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86781.64499674746</v>
+        <v>86781.64499674756</v>
       </c>
       <c r="M3" t="n">
-        <v>76347.91860002119</v>
+        <v>76347.91860002077</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32085.4766253296</v>
+        <v>32085.47662532941</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>329006.4673210776</v>
+        <v>329006.4673210777</v>
       </c>
       <c r="F4" t="n">
         <v>329006.4673210776</v>
       </c>
       <c r="G4" t="n">
-        <v>396179.5052090346</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="H4" t="n">
-        <v>396179.5052090345</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="I4" t="n">
-        <v>396179.5052090345</v>
+        <v>396179.5052090347</v>
       </c>
       <c r="J4" t="n">
         <v>394231.1226104039</v>
@@ -26457,7 +26457,7 @@
         <v>393892.8197573469</v>
       </c>
       <c r="P4" t="n">
-        <v>393892.8197573468</v>
+        <v>393892.8197573469</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35274.09422500693</v>
+        <v>35274.09422500685</v>
       </c>
       <c r="F5" t="n">
-        <v>35274.09422500693</v>
+        <v>35274.09422500685</v>
       </c>
       <c r="G5" t="n">
-        <v>44393.65186654638</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="H5" t="n">
-        <v>44393.65186654638</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="I5" t="n">
-        <v>44393.65186654638</v>
+        <v>44393.65186654632</v>
       </c>
       <c r="J5" t="n">
         <v>57462.97101278279</v>
@@ -26497,19 +26497,19 @@
         <v>57462.97101278279</v>
       </c>
       <c r="L5" t="n">
-        <v>57462.9710127828</v>
+        <v>57462.97101278279</v>
       </c>
       <c r="M5" t="n">
         <v>45906.06868409438</v>
       </c>
       <c r="N5" t="n">
-        <v>45906.06868409438</v>
+        <v>45906.0686840944</v>
       </c>
       <c r="O5" t="n">
-        <v>47556.76534565553</v>
+        <v>47556.76534565538</v>
       </c>
       <c r="P5" t="n">
-        <v>47556.76534565553</v>
+        <v>47556.76534565538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51877.3998936822</v>
+        <v>51872.98631581408</v>
       </c>
       <c r="C6" t="n">
-        <v>51877.39989368208</v>
+        <v>51872.98631581396</v>
       </c>
       <c r="D6" t="n">
-        <v>51877.39989368231</v>
+        <v>51872.98631581408</v>
       </c>
       <c r="E6" t="n">
-        <v>-223863.0834432512</v>
+        <v>-224158.0873233324</v>
       </c>
       <c r="F6" t="n">
-        <v>92695.58004450885</v>
+        <v>92400.57616442749</v>
       </c>
       <c r="G6" t="n">
-        <v>6322.348339455071</v>
+        <v>6322.348339455886</v>
       </c>
       <c r="H6" t="n">
-        <v>93103.99333620268</v>
+        <v>93103.9933362032</v>
       </c>
       <c r="I6" t="n">
-        <v>93103.9933362028</v>
+        <v>93103.99333620344</v>
       </c>
       <c r="J6" t="n">
-        <v>-43992.7351617435</v>
+        <v>-43992.73516174402</v>
       </c>
       <c r="K6" t="n">
-        <v>81983.05678859804</v>
+        <v>81983.05678859816</v>
       </c>
       <c r="L6" t="n">
-        <v>-4798.588208149333</v>
+        <v>-4798.588208149442</v>
       </c>
       <c r="M6" t="n">
-        <v>17045.79336290594</v>
+        <v>17045.79336290635</v>
       </c>
       <c r="N6" t="n">
-        <v>93393.71196292734</v>
+        <v>93393.71196292686</v>
       </c>
       <c r="O6" t="n">
-        <v>60142.08868345219</v>
+        <v>60142.08868345228</v>
       </c>
       <c r="P6" t="n">
-        <v>92227.56530878184</v>
+        <v>92227.56530878181</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G2" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I2" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="J2" t="n">
         <v>149.6931175680335</v>
@@ -26713,7 +26713,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="L2" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M2" t="n">
         <v>236.7532148486027</v>
@@ -26722,10 +26722,10 @@
         <v>236.7532148486027</v>
       </c>
       <c r="O2" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="P2" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="F4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="H4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="I4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="J4" t="n">
         <v>692.8008451099397</v>
@@ -26823,13 +26823,13 @@
         <v>382.3410153900617</v>
       </c>
       <c r="N4" t="n">
-        <v>382.3410153900617</v>
+        <v>382.3410153900619</v>
       </c>
       <c r="O4" t="n">
-        <v>431.4512280387878</v>
+        <v>431.4512280387834</v>
       </c>
       <c r="P4" t="n">
-        <v>431.4512280387878</v>
+        <v>431.4512280387834</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.21606132209922</v>
+        <v>41.21606132209899</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>87.06009728056915</v>
+        <v>87.06009728056924</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.33381855150125</v>
+        <v>25.33381855150242</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>355.4560505597786</v>
+        <v>355.4560505597806</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>26.88496483028308</v>
+        <v>26.88496483028109</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>49.11021264872613</v>
+        <v>49.11021264872147</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.4770562459343</v>
+        <v>108.4770562459344</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.21606132209922</v>
+        <v>41.21606132209899</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y11" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="12">
@@ -28166,22 +28166,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C12" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E12" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H12" t="n">
         <v>109.6090828455255</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.27374157744546</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>51.28693136788932</v>
       </c>
       <c r="T12" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V12" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.084767627065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="L13" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>142.8279364222922</v>
+        <v>8.149808585996141</v>
       </c>
       <c r="N13" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="P13" t="n">
-        <v>83.90631956944848</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.07142543885081</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>117.9425707366228</v>
       </c>
       <c r="S14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y14" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C15" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D15" t="n">
-        <v>77.62227263596532</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E15" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G15" t="n">
         <v>137.0715778366251</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I15" t="n">
         <v>80.03380954572833</v>
@@ -28454,25 +28454,25 @@
         <v>83.27374157744546</v>
       </c>
       <c r="S15" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>110.8411262127369</v>
       </c>
       <c r="U15" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="C16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="D16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="F16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="G16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="I16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="J16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>8.149808585996691</v>
       </c>
       <c r="L16" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>142.8279364222922</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="O16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="P16" t="n">
-        <v>83.90631956944848</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.07142543885081</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="R16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="S16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="T16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="U16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="V16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="W16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.8279364222922</v>
+        <v>142.8279364222927</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="C17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="D17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="E17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="F17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="G17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="H17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="I17" t="n">
         <v>190.8814659761525</v>
@@ -28621,16 +28621,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="W17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="Y17" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.8569531915527</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28655,13 +28655,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.03380954572833</v>
+        <v>73.72429166931842</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S18" t="n">
         <v>166.6320173841457</v>
@@ -28697,19 +28697,19 @@
         <v>199.0686223740667</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9234913358047</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28776,13 +28776,13 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U19" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3049926682265</v>
+        <v>26.65425491779939</v>
       </c>
       <c r="W19" t="n">
-        <v>26.65425491780064</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I20" t="n">
         <v>190.8814659761525</v>
@@ -28858,16 +28858,16 @@
         <v>251.3049926682271</v>
       </c>
       <c r="V20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="21">
@@ -28889,7 +28889,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.0715778366251</v>
@@ -28898,7 +28898,7 @@
         <v>109.6090828455255</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6320173841457</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28937,10 +28937,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>75.22995249637628</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>16.75894794141723</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -28968,10 +28968,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>161.6969101637524</v>
+        <v>167.7629945620835</v>
       </c>
       <c r="H22" t="n">
         <v>160.2001804087575</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.07142543885081</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>167.0423658965133</v>
@@ -29013,19 +29013,19 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U22" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="V22" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W22" t="n">
-        <v>251.3049926682265</v>
+        <v>239.1467283795813</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="C23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="D23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="E23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="F23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="G23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="H23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="I23" t="n">
         <v>190.8814659761525</v>
@@ -29092,19 +29092,19 @@
         <v>220.8709720780061</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682271</v>
       </c>
       <c r="V23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="Y23" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
     </row>
     <row r="24">
@@ -29117,25 +29117,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>110.0304590801965</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0715778366251</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,22 +29168,22 @@
         <v>166.6320173841457</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0686223740667</v>
       </c>
       <c r="U24" t="n">
         <v>225.9234913358047</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>13.02051885922469</v>
       </c>
     </row>
     <row r="25">
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.7629945620835</v>
@@ -29250,13 +29250,13 @@
         <v>226.9714725710416</v>
       </c>
       <c r="U25" t="n">
-        <v>251.3049926682265</v>
+        <v>172.0753029407305</v>
       </c>
       <c r="V25" t="n">
-        <v>26.65425491780067</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="W25" t="n">
-        <v>251.3049926682265</v>
+        <v>251.3049926682272</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29305,7 +29305,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="M26" t="n">
-        <v>149.6931175680335</v>
+        <v>149.6931175680343</v>
       </c>
       <c r="N26" t="n">
         <v>149.6931175680335</v>
@@ -29320,7 +29320,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="R26" t="n">
-        <v>149.6931175680333</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S26" t="n">
         <v>149.6931175680335</v>
@@ -29351,16 +29351,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>137.0715778366251</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6090828455255</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,19 +29399,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U27" t="n">
-        <v>74.90577940049445</v>
+        <v>21.20731112284579</v>
       </c>
       <c r="V27" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>149.6931175680335</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E28" t="n">
         <v>149.6931175680335</v>
@@ -29454,25 +29454,25 @@
         <v>148.5943503235359</v>
       </c>
       <c r="J28" t="n">
-        <v>77.24065501293978</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K28" t="n">
-        <v>86.26984501424337</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="O28" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>149.6931175680335</v>
+        <v>12.73973790932889</v>
       </c>
       <c r="Q28" t="n">
         <v>149.6931175680335</v>
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>149.6931175680335</v>
+        <v>65.91525102000352</v>
       </c>
       <c r="F30" t="n">
-        <v>94.10756497227776</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I30" t="n">
         <v>80.03380954572833</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29648,13 +29648,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>149.6931175680335</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>149.6931175680335</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -29688,19 +29688,19 @@
         <v>149.6931175680335</v>
       </c>
       <c r="I31" t="n">
-        <v>149.6931175680335</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J31" t="n">
         <v>149.6931175680335</v>
       </c>
       <c r="K31" t="n">
-        <v>16.99068475975431</v>
+        <v>103.970299054899</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>149.6931175680335</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>149.6931175680335</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>149.6931175680335</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R31" t="n">
         <v>149.6931175680335</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="D32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="E32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="F32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="G32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="H32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="I32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="J32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="M32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="N32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="O32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="R32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="V32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Y32" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
     </row>
     <row r="33">
@@ -29831,16 +29831,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>149.6931175680336</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>134.1915996947857</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H33" t="n">
         <v>109.6090828455255</v>
@@ -29876,19 +29876,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>144.5650874227995</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>149.6931175680336</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="C34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>149.6931175680336</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>149.6931175680336</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="H34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="I34" t="n">
-        <v>149.6931175680336</v>
+        <v>148.5943503235359</v>
       </c>
       <c r="J34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="K34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="L34" t="n">
-        <v>149.6931175680336</v>
+        <v>103.9702990548989</v>
       </c>
       <c r="M34" t="n">
-        <v>12.71861521465107</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.6931175680336</v>
+        <v>67.07142543885081</v>
       </c>
       <c r="R34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="S34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="T34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="U34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="V34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="W34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="X34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.6931175680336</v>
+        <v>149.6931175680335</v>
       </c>
     </row>
     <row r="35">
@@ -30065,16 +30065,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>160.1074382938221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0715778366251</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30128,7 +30128,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>26.44662805291736</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -30204,13 +30204,13 @@
         <v>236.7532148486027</v>
       </c>
       <c r="W37" t="n">
-        <v>55.75781055704829</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>37.5892490605404</v>
       </c>
     </row>
     <row r="38">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>111.2509712872541</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0715778366251</v>
+        <v>132.8618724501287</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.03380954572833</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T39" t="n">
         <v>199.0686223740667</v>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>167.7629945620835</v>
       </c>
       <c r="H40" t="n">
-        <v>160.2001804087575</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>148.5943503235359</v>
@@ -30432,13 +30432,13 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T40" t="n">
-        <v>226.9714725710416</v>
+        <v>206.1762486882446</v>
       </c>
       <c r="U40" t="n">
         <v>236.7532148486027</v>
       </c>
       <c r="V40" t="n">
-        <v>55.75781055704823</v>
+        <v>236.7532148486027</v>
       </c>
       <c r="W40" t="n">
         <v>236.7532148486027</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="C41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="D41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="E41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="F41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="H41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="I41" t="n">
-        <v>190.8814659761525</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>169.3502939313769</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>25.10630564741908</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>38.10597451754755</v>
       </c>
       <c r="R41" t="n">
-        <v>117.9425707366228</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="S41" t="n">
-        <v>197.4382544600136</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="T41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="V41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>89.45479234098879</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>4.128027419085015</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.6090828455255</v>
       </c>
       <c r="I42" t="n">
         <v>80.03380954572833</v>
@@ -30584,10 +30584,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.27374157744546</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T42" t="n">
         <v>199.0686223740667</v>
@@ -30599,10 +30599,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>220.8709720780047</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30669,19 +30669,19 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T43" t="n">
-        <v>98.46147990231347</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U43" t="n">
-        <v>220.8709720780047</v>
+        <v>98.46147990230799</v>
       </c>
       <c r="V43" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W43" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X43" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="C44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="D44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="E44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="F44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="G44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="H44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="I44" t="n">
-        <v>190.8814659761525</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="J44" t="n">
-        <v>171.0238819608035</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30739,31 +30739,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>38.10597451754755</v>
       </c>
       <c r="R44" t="n">
-        <v>117.9425707366228</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="S44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="T44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="V44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y44" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
     </row>
     <row r="45">
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.6544177574881</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0715778366251</v>
       </c>
       <c r="H45" t="n">
         <v>109.6090828455255</v>
       </c>
       <c r="I45" t="n">
-        <v>80.03380954572833</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6320173841457</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0686223740667</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>220.7945472110748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30861,7 +30861,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>24.02447047087118</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -30906,22 +30906,22 @@
         <v>220.0434448128683</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="U46" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="V46" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="W46" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="X46" t="n">
-        <v>220.8709720780047</v>
+        <v>220.8709720780061</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.17516117640351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -35410,7 +35410,7 @@
         <v>31.18804828971064</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>168.7072484538158</v>
       </c>
       <c r="L11" t="n">
         <v>262.1009341074109</v>
@@ -35422,10 +35422,10 @@
         <v>298.6227133666319</v>
       </c>
       <c r="O11" t="n">
-        <v>236.3368816721012</v>
+        <v>58.17002743733588</v>
       </c>
       <c r="P11" t="n">
-        <v>154.1935226493596</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q11" t="n">
         <v>44.89490641191098</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.94571145435339</v>
       </c>
       <c r="K12" t="n">
         <v>170.5360357000628</v>
@@ -35495,16 +35495,16 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M12" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N12" t="n">
-        <v>220.5695086928912</v>
+        <v>275.1743101803181</v>
       </c>
       <c r="O12" t="n">
-        <v>315.9673583817869</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.58728140935241</v>
+        <v>65.58728140935293</v>
       </c>
       <c r="K13" t="n">
-        <v>4.218196334809896</v>
+        <v>147.0461327571026</v>
       </c>
       <c r="L13" t="n">
-        <v>204.3130831364401</v>
+        <v>61.48514671414786</v>
       </c>
       <c r="M13" t="n">
-        <v>218.1494665104884</v>
+        <v>83.47133867419237</v>
       </c>
       <c r="N13" t="n">
-        <v>221.848000414114</v>
+        <v>79.02006399182181</v>
       </c>
       <c r="O13" t="n">
-        <v>56.80974258715791</v>
+        <v>199.6376790094506</v>
       </c>
       <c r="P13" t="n">
-        <v>108.7586036614043</v>
+        <v>167.6802205142485</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>75.7565109834419</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>31.18804828971064</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>168.7072484538158</v>
       </c>
       <c r="L14" t="n">
-        <v>83.93407987265337</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M14" t="n">
         <v>308.4120789944218</v>
@@ -35662,10 +35662,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P14" t="n">
-        <v>163.6531284303014</v>
+        <v>61.56922889715749</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.89490641191098</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>24.94571145435339</v>
       </c>
       <c r="K15" t="n">
-        <v>129.7429874986</v>
+        <v>170.5360357000628</v>
       </c>
       <c r="L15" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>145.7300098199723</v>
       </c>
       <c r="O15" t="n">
         <v>315.9673583817869</v>
@@ -35744,7 +35744,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.58728140935241</v>
+        <v>65.5872814093529</v>
       </c>
       <c r="K16" t="n">
-        <v>4.218196334809896</v>
+        <v>12.36800492080659</v>
       </c>
       <c r="L16" t="n">
-        <v>204.3130831364401</v>
+        <v>61.48514671414786</v>
       </c>
       <c r="M16" t="n">
-        <v>218.1494665104884</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N16" t="n">
-        <v>79.02006399182181</v>
+        <v>221.8480004141145</v>
       </c>
       <c r="O16" t="n">
-        <v>199.6376790094501</v>
+        <v>199.6376790094506</v>
       </c>
       <c r="P16" t="n">
-        <v>108.7586036614043</v>
+        <v>167.6802205142485</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.75651098344187</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>262.1009341074109</v>
       </c>
       <c r="M17" t="n">
-        <v>175.1401311715753</v>
+        <v>308.4120789944218</v>
       </c>
       <c r="N17" t="n">
         <v>298.6227133666319</v>
@@ -35899,7 +35899,7 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P17" t="n">
-        <v>163.6531284303014</v>
+        <v>30.38118060744683</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.94571145435339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>337.3447945501611</v>
+        <v>316.266045520035</v>
       </c>
       <c r="N18" t="n">
-        <v>154.6886989529534</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O18" t="n">
         <v>315.9673583817869</v>
@@ -35981,7 +35981,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>168.7072484538158</v>
+        <v>21.72844250876101</v>
       </c>
       <c r="L20" t="n">
         <v>262.1009341074109</v>
@@ -36136,10 +36136,10 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P20" t="n">
-        <v>61.5692288971653</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>44.89490641191098</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>170.5360357000628</v>
       </c>
       <c r="L21" t="n">
-        <v>291.3313881666452</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>191.7434162034941</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>250.5383399651765</v>
       </c>
       <c r="O21" t="n">
         <v>315.9673583817869</v>
@@ -36218,7 +36218,7 @@
         <v>236.4168454400005</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>308.4120789944218</v>
       </c>
       <c r="N23" t="n">
-        <v>120.4558591318743</v>
+        <v>298.6227133666319</v>
       </c>
       <c r="O23" t="n">
         <v>236.3368816721012</v>
       </c>
       <c r="P23" t="n">
-        <v>163.6531284303014</v>
+        <v>30.38118060744683</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.89490641191098</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.487796411214219e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.94571145435339</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3.557221185021439</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>291.3313881666452</v>
       </c>
       <c r="M24" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="N24" t="n">
-        <v>337.3447945501611</v>
+        <v>337.3447945501591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P24" t="n">
-        <v>236.4168454400005</v>
+        <v>53.76074984278901</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.8811658577442</v>
+        <v>180.8811658577441</v>
       </c>
       <c r="K26" t="n">
         <v>318.4003660218493</v>
@@ -36601,22 +36601,22 @@
         <v>411.7940516754444</v>
       </c>
       <c r="M26" t="n">
-        <v>458.1051965624553</v>
+        <v>458.1051965624561</v>
       </c>
       <c r="N26" t="n">
         <v>448.3158309346654</v>
       </c>
       <c r="O26" t="n">
-        <v>386.0299992401348</v>
+        <v>386.0299992401347</v>
       </c>
       <c r="P26" t="n">
-        <v>313.3462459983349</v>
+        <v>313.3462459983348</v>
       </c>
       <c r="Q26" t="n">
         <v>194.5880239799445</v>
       </c>
       <c r="R26" t="n">
-        <v>31.75054683141054</v>
+        <v>31.75054683141068</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.077644549821116</v>
       </c>
       <c r="E28" t="n">
-        <v>3.259154921464329</v>
+        <v>3.259154921464301</v>
       </c>
       <c r="F28" t="n">
-        <v>4.272069545102255</v>
+        <v>4.272069545102227</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>72.45246255509369</v>
       </c>
       <c r="K28" t="n">
-        <v>90.48804134905328</v>
+        <v>4.218196334809896</v>
       </c>
       <c r="L28" t="n">
         <v>61.48514671414786</v>
       </c>
       <c r="M28" t="n">
-        <v>75.32153008819623</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N28" t="n">
-        <v>79.02006399182181</v>
+        <v>228.7131815598553</v>
       </c>
       <c r="O28" t="n">
-        <v>206.5028601551914</v>
+        <v>56.80974258715791</v>
       </c>
       <c r="P28" t="n">
-        <v>174.5454016599893</v>
+        <v>37.59202200128469</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.62169212918269</v>
+        <v>82.62169212918266</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36972,7 +36972,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.259154921464329</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -36984,19 +36984,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.098767244497568</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>72.45246255509372</v>
       </c>
       <c r="K31" t="n">
-        <v>21.2088810945642</v>
+        <v>108.1884953897089</v>
       </c>
       <c r="L31" t="n">
-        <v>211.1782642821814</v>
+        <v>61.48514671414786</v>
       </c>
       <c r="M31" t="n">
-        <v>75.32153008819623</v>
+        <v>225.0146476562297</v>
       </c>
       <c r="N31" t="n">
         <v>228.7131815598553</v>
@@ -37008,7 +37008,7 @@
         <v>24.8522840919558</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.62169212918269</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,10 +37072,10 @@
         <v>318.4003660218493</v>
       </c>
       <c r="L32" t="n">
-        <v>411.7940516754445</v>
+        <v>411.7940516754444</v>
       </c>
       <c r="M32" t="n">
-        <v>458.1051965624554</v>
+        <v>458.1051965624553</v>
       </c>
       <c r="N32" t="n">
         <v>448.3158309346654</v>
@@ -37090,7 +37090,7 @@
         <v>194.5880239799445</v>
       </c>
       <c r="R32" t="n">
-        <v>31.75054683141077</v>
+        <v>31.75054683141072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37209,10 +37209,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>3.259154921464386</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.272069545102312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.098767244497625</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.45246255509377</v>
+        <v>72.45246255509372</v>
       </c>
       <c r="K34" t="n">
-        <v>153.9113139028435</v>
+        <v>153.9113139028434</v>
       </c>
       <c r="L34" t="n">
-        <v>211.1782642821814</v>
+        <v>165.4554457690468</v>
       </c>
       <c r="M34" t="n">
-        <v>88.04014530284729</v>
+        <v>75.32153008819623</v>
       </c>
       <c r="N34" t="n">
         <v>79.02006399182181</v>
       </c>
       <c r="O34" t="n">
-        <v>56.80974258715791</v>
+        <v>206.5028601551914</v>
       </c>
       <c r="P34" t="n">
         <v>24.8522840919558</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.62169212918275</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.94571145435339</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>170.5360357000628</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>212.5269862065606</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M36" t="n">
         <v>382.3410153900617</v>
       </c>
       <c r="N36" t="n">
-        <v>382.3410153900617</v>
+        <v>183.0510022026064</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>315.9673583817869</v>
       </c>
       <c r="P36" t="n">
         <v>236.4168454400005</v>
@@ -37561,7 +37561,7 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.89490641191098</v>
+        <v>44.89490641191207</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>170.5360357000628</v>
       </c>
       <c r="L39" t="n">
-        <v>237.7848034099786</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M39" t="n">
-        <v>382.3410153900617</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>382.3410153900617</v>
+        <v>369.9102704382528</v>
       </c>
       <c r="O39" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.8083301452043</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.98950610185364</v>
       </c>
       <c r="J41" t="n">
         <v>31.18804828971064</v>
@@ -37783,7 +37783,7 @@
         <v>168.7072484538158</v>
       </c>
       <c r="L41" t="n">
-        <v>431.4512280387878</v>
+        <v>262.1009341074109</v>
       </c>
       <c r="M41" t="n">
         <v>308.4120789944218</v>
@@ -37795,16 +37795,16 @@
         <v>236.3368816721012</v>
       </c>
       <c r="P41" t="n">
-        <v>188.7594340777204</v>
+        <v>163.6531284303014</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.89490641191098</v>
+        <v>83.00088092945853</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.43271761799254</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>291.3313881666452</v>
       </c>
       <c r="M42" t="n">
-        <v>382.0561666740344</v>
+        <v>392.474253059768</v>
       </c>
       <c r="N42" t="n">
-        <v>418.7275487830124</v>
+        <v>276.700947102465</v>
       </c>
       <c r="O42" t="n">
         <v>315.9673583817869</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.98950610185361</v>
       </c>
       <c r="J44" t="n">
-        <v>202.2119302505141</v>
+        <v>31.18804828971064</v>
       </c>
       <c r="K44" t="n">
         <v>168.7072484538158</v>
@@ -38035,16 +38035,16 @@
         <v>163.6531284303014</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.89490641191098</v>
+        <v>83.00088092945853</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.9284013413833</v>
       </c>
       <c r="S44" t="n">
-        <v>23.43271761799117</v>
+        <v>23.43271761799251</v>
       </c>
       <c r="T44" t="n">
-        <v>-1.34647848426539e-12</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>170.5360357000628</v>
       </c>
       <c r="L45" t="n">
-        <v>280.9133017809117</v>
+        <v>291.3313881666452</v>
       </c>
       <c r="M45" t="n">
-        <v>392.474253059768</v>
+        <v>250.4476513792205</v>
       </c>
       <c r="N45" t="n">
         <v>418.7275487830124</v>
@@ -38111,10 +38111,10 @@
         <v>315.9673583817869</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>236.4168454400005</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.8083301452043</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
